--- a/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Offsets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="105">
   <si>
     <t>Site</t>
   </si>
@@ -324,70 +324,34 @@
     <t>Sensor failure, was replaced 7/16</t>
   </si>
   <si>
-    <t>Demobed 7/12</t>
-  </si>
-  <si>
-    <t>Another high flow event 7/22. Smaller but longer duration flow event 7/10</t>
-  </si>
-  <si>
-    <t>Several very large flows in June but no reason to remove them. Any other data to discount/corroborate these?</t>
-  </si>
-  <si>
-    <t>New probe installed. High flow event 7/16</t>
-  </si>
-  <si>
-    <t>High flow event 7/16</t>
-  </si>
-  <si>
-    <t>High flow event 7/16, possible stormflow? Also high flow event 7/22 (same as SDR-097?)</t>
-  </si>
-  <si>
-    <t>Very high flow event 7/16</t>
-  </si>
-  <si>
-    <t>High flow events 7/3 and 7/11</t>
-  </si>
-  <si>
-    <t>High flow event 7/19. Mostly no flow now?</t>
-  </si>
-  <si>
-    <t>None. Looks like going dry</t>
-  </si>
-  <si>
-    <t>High flow event 7/18</t>
-  </si>
-  <si>
-    <t>High flow event 7/16 followed by series of higher flows</t>
-  </si>
-  <si>
-    <t>Early May flow should have been clipped out</t>
-  </si>
-  <si>
-    <t>Clear weekday flows pattern, then no flow on weekends. Data stops at 7/19? Where's the rest of the data?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear weekday flows pattern, then no flow on weekends. </t>
-  </si>
-  <si>
-    <t>storm clips during 6/17 and 6/21 not needed</t>
-  </si>
-  <si>
-    <t>level spike on 7/15 same day as manual download</t>
-  </si>
-  <si>
-    <t>data drop out 7/2, 7/11, 7/13, 7/14, 7/15, 7/17, 7/20</t>
-  </si>
-  <si>
-    <t>data drop outs 6/2, 7/6, 7/9, 7/10, 7/11, 7/14, 7/17, 7/20, 7/22</t>
-  </si>
-  <si>
-    <t>data drop outs 7/1, 7/3, 7/9, 7/19, 7/20, 7/22</t>
-  </si>
-  <si>
     <t>Data Dropout</t>
   </si>
   <si>
     <t>Data gap. Possible battery failure.</t>
+  </si>
+  <si>
+    <t>Data dropouts</t>
+  </si>
+  <si>
+    <t>weird spikes in flow</t>
+  </si>
+  <si>
+    <t>Data gaps and some weird spikes in flow</t>
+  </si>
+  <si>
+    <t>Some high flow in late july</t>
+  </si>
+  <si>
+    <t>Still some high flow late in July</t>
+  </si>
+  <si>
+    <t>Data stops at 7/29ish? Where's the rest of the data?</t>
+  </si>
+  <si>
+    <t>Data stops at 7/30ish? Where's the rest of the data?</t>
+  </si>
+  <si>
+    <t>Demobed 7/12. Deliverable ends at end of day 7/12.</t>
   </si>
 </sst>
 </file>
@@ -2626,7 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC1368"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B387" sqref="B387"/>
     </sheetView>
@@ -2828,7 +2792,7 @@
         <v>43647.659722222219</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4034,7 +3998,7 @@
         <v>43668.552083333336</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -25247,11 +25211,11 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25395,7 +25359,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C15" s="11"/>
     </row>
@@ -25404,7 +25368,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C16" s="11"/>
     </row>
@@ -25417,12 +25381,12 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C18" s="11"/>
     </row>
@@ -25431,7 +25395,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C19" s="11"/>
     </row>
@@ -25440,16 +25404,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C21" s="11"/>
     </row>
@@ -25458,7 +25422,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="11"/>
     </row>
@@ -25467,7 +25431,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" s="11"/>
     </row>
@@ -25476,7 +25440,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C24" s="11"/>
     </row>
@@ -25485,7 +25449,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C25" s="11"/>
     </row>
@@ -25494,7 +25458,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11"/>
     </row>
@@ -25503,7 +25467,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C27" s="11"/>
     </row>
@@ -25512,7 +25476,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C28" s="11"/>
     </row>
@@ -25530,7 +25494,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C30" s="11"/>
     </row>
@@ -25539,7 +25503,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C31" s="11"/>
     </row>
@@ -25548,7 +25512,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C32" s="11"/>
     </row>
@@ -25566,7 +25530,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11"/>
     </row>
@@ -25575,7 +25539,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C35" s="11"/>
     </row>
@@ -25584,7 +25548,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C36" s="11"/>
     </row>
@@ -25593,7 +25557,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C37" s="11"/>
     </row>
@@ -25602,7 +25566,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C38" s="11"/>
     </row>
@@ -25611,7 +25575,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C39" s="11"/>
     </row>
@@ -25620,7 +25584,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C40" s="11"/>
     </row>

--- a/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
@@ -18,9 +18,9 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="4" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$E$471</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$E$470</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data Deliverable Notes'!$A$1:$C$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$1:$G$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$1:$G$59</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="104">
   <si>
     <t>Site</t>
   </si>
@@ -303,25 +303,10 @@
     <t>Weird spike in level data</t>
   </si>
   <si>
-    <t>Lots of short data dropouts in July</t>
-  </si>
-  <si>
-    <t>High flow event 7/13. Seems like some kind of planned discharge</t>
-  </si>
-  <si>
-    <t>Battery failure 7/16-7/22</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Trending up after 7/18, possible obstruction? Lots of short data dropouts in July</t>
-  </si>
-  <si>
     <t>High flow event 7/1. Looks like it's going dry</t>
-  </si>
-  <si>
-    <t>Sensor failure, was replaced 7/16</t>
   </si>
   <si>
     <t>Data Dropout</t>
@@ -352,6 +337,18 @@
   </si>
   <si>
     <t>Demobed 7/12. Deliverable ends at end of day 7/12.</t>
+  </si>
+  <si>
+    <t>Sensor failure, was replaced 7/16. Data offset after the 16th to adjust for new probe.</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>High flow event 7/13. Seems like some kind of planned discharge, weird spike on 7/31</t>
+  </si>
+  <si>
+    <t>Battery failure 7/16-7/22, data dropout after 7/30. where's missing data?</t>
   </si>
 </sst>
 </file>
@@ -867,13 +864,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,25 +1283,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B23" s="8">
+        <v>43591.5</v>
+      </c>
+      <c r="C23" s="8">
+        <v>43677.999305555553</v>
+      </c>
       <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14">
-        <v>-0.15</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>43</v>
-      </c>
+        <v>3.1</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1312,31 +1309,39 @@
         <v>0</v>
       </c>
       <c r="E24" s="14">
-        <v>-0.05</v>
-      </c>
-      <c r="F24" s="26" t="b">
-        <v>1</v>
+        <v>-0.15</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
+      <c r="A25" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>0</v>
       </c>
       <c r="E25" s="14">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="F25" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>40</v>
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
       </c>
       <c r="F26" s="26" t="b">
         <v>1</v>
@@ -1344,7 +1349,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="26" t="b">
         <v>1</v>
@@ -1352,19 +1357,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="1">
-        <v>43633.586805555555</v>
-      </c>
-      <c r="C28" s="1">
-        <v>43738.999305555553</v>
-      </c>
-      <c r="D28">
-        <v>-0.7</v>
-      </c>
-      <c r="E28" s="14">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F28" s="26" t="b">
         <v>1</v>
@@ -1374,33 +1367,45 @@
       <c r="A29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="7">
-        <v>0</v>
+      <c r="B29" s="1">
+        <v>43633.586805555555</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43738.999305555553</v>
+      </c>
+      <c r="D29">
+        <v>-0.7</v>
       </c>
       <c r="E29" s="14">
         <v>0</v>
       </c>
-      <c r="F29" s="5" t="b">
+      <c r="F29" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7">
         <v>0</v>
       </c>
       <c r="E30" s="14">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="F30" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="F31" s="26" t="b">
         <v>1</v>
@@ -1408,11 +1413,8 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
+        <v>14</v>
+      </c>
       <c r="F32" s="26" t="b">
         <v>1</v>
       </c>
@@ -1421,13 +1423,13 @@
       <c r="A33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="8">
         <v>43634.40625</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="8">
         <v>43738.999305555553</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="7">
         <v>-0.1</v>
       </c>
       <c r="F33" s="5" t="b">
@@ -1436,48 +1438,45 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" s="22">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="F34" s="26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7">
+      <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="22">
         <v>0.15</v>
       </c>
-      <c r="F35" s="5" t="b">
+      <c r="F35" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="26" t="b">
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="F36" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1486,28 +1485,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="F39" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F40" s="26" t="b">
         <v>1</v>
@@ -1515,7 +1517,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" s="26" t="b">
         <v>1</v>
@@ -1523,15 +1525,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="7">
-        <v>0</v>
-      </c>
-      <c r="E42" s="22">
-        <v>0.2</v>
+        <v>36</v>
       </c>
       <c r="F42" s="26" t="b">
         <v>1</v>
@@ -1541,56 +1535,54 @@
       <c r="A43" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D43">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="7">
         <v>0</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="22">
         <v>0.2</v>
       </c>
-      <c r="F43" s="5" t="b">
+      <c r="F43" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="26" t="b">
+        <v>37</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F44" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="7"/>
+        <v>38</v>
+      </c>
       <c r="F45" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="8">
-        <v>43586</v>
-      </c>
-      <c r="C46" s="8">
-        <v>43586.84375</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="14">
-        <v>0</v>
-      </c>
       <c r="F46" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="8">
         <v>43586</v>
@@ -1598,11 +1590,9 @@
       <c r="C47" s="8">
         <v>43586.84375</v>
       </c>
-      <c r="D47" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E47" s="22">
-        <v>0.5</v>
+      <c r="D47" s="7"/>
+      <c r="E47" s="14">
+        <v>0</v>
       </c>
       <c r="F47" s="26" t="b">
         <v>1</v>
@@ -1621,24 +1611,28 @@
       <c r="D48" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="22">
         <v>0.5</v>
       </c>
-      <c r="F48" s="5" t="b">
+      <c r="F48" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="8">
+        <v>43586</v>
+      </c>
+      <c r="C49" s="8">
+        <v>43586.84375</v>
+      </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E49" s="14">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F49" s="5" t="b">
         <v>1</v>
@@ -1646,38 +1640,36 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="8">
-        <v>43592.649305555598</v>
-      </c>
-      <c r="C50" s="8">
-        <v>43594.708333333299</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="7">
         <v>0</v>
       </c>
       <c r="E50" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F50" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="8">
+        <v>43592.649305555598</v>
+      </c>
+      <c r="C51" s="8">
+        <v>43594.708333333299</v>
+      </c>
+      <c r="D51" s="7">
         <v>0</v>
       </c>
-      <c r="F50" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="1">
-        <v>43586</v>
-      </c>
-      <c r="C51" s="1">
-        <v>43592.770833333299</v>
-      </c>
-      <c r="D51">
-        <v>4.25</v>
-      </c>
-      <c r="E51" s="22"/>
+      <c r="E51" s="14">
+        <v>0</v>
+      </c>
       <c r="F51" s="26" t="b">
         <v>1</v>
       </c>
@@ -1687,13 +1679,13 @@
         <v>26</v>
       </c>
       <c r="B52" s="1">
+        <v>43586</v>
+      </c>
+      <c r="C52" s="1">
         <v>43592.770833333299</v>
       </c>
-      <c r="C52" s="1">
-        <v>43593.708333333336</v>
-      </c>
       <c r="D52">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="26" t="b">
@@ -1704,9 +1696,16 @@
       <c r="A53" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="22">
-        <v>0.25</v>
-      </c>
+      <c r="B53" s="1">
+        <v>43592.770833333299</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43593.708333333336</v>
+      </c>
+      <c r="D53">
+        <v>3.5</v>
+      </c>
+      <c r="E53" s="22"/>
       <c r="F53" s="26" t="b">
         <v>1</v>
       </c>
@@ -1715,24 +1714,27 @@
       <c r="A54" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="22">
         <v>0.25</v>
       </c>
-      <c r="F54" s="5" t="b">
+      <c r="F54" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="26" t="b">
+        <v>26</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="F55" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F56" s="26" t="b">
         <v>1</v>
@@ -1740,7 +1742,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F57" s="26" t="b">
         <v>1</v>
@@ -1750,15 +1752,17 @@
       <c r="A58" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="E59"/>
-      <c r="F59"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60"/>
@@ -2576,8 +2580,19 @@
       <c r="E195"/>
       <c r="F195"/>
     </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B196"/>
+      <c r="C196"/>
+      <c r="E196"/>
+      <c r="F196"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G58"/>
+  <autoFilter ref="A1:G59">
+    <sortState ref="A2:G58">
+      <sortCondition ref="A2:A58"/>
+      <sortCondition ref="B2:B58"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:G58">
     <sortCondition ref="A1"/>
   </sortState>
@@ -2588,11 +2603,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC1368"/>
+  <dimension ref="A1:XFC1367"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B387" sqref="B387"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2792,7 +2807,7 @@
         <v>43647.659722222219</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3998,7 +4013,7 @@
         <v>43668.552083333336</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4879,7 +4894,7 @@
         <v>43604.423611111109</v>
       </c>
       <c r="C158" s="8">
-        <v>43646.999305555553</v>
+        <v>43662.499305555553</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>62</v>
@@ -4888,16 +4903,16 @@
     </row>
     <row r="159" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B159" s="8">
-        <v>43604.423611111109</v>
+        <v>43591.291666666664</v>
       </c>
       <c r="C159" s="8">
-        <v>43616.999305555553</v>
+        <v>43591.5</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4905,394 +4920,400 @@
         <v>10</v>
       </c>
       <c r="B160" s="8">
-        <v>43591.291666666664</v>
+        <v>43592.125</v>
       </c>
       <c r="C160" s="8">
-        <v>43591.5</v>
+        <v>43592.416666666664</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B161" s="8">
-        <v>43592.125</v>
+        <v>43595.125</v>
       </c>
       <c r="C161" s="8">
-        <v>43592.416666666664</v>
+        <v>43595.375</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E161" s="7"/>
+    </row>
+    <row r="162" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B162" s="8">
-        <v>43595.125</v>
+        <v>43596.25</v>
       </c>
       <c r="C162" s="8">
-        <v>43595.375</v>
+        <v>43596.71875</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B163" s="8">
-        <v>43596.25</v>
+        <v>43601.416666666664</v>
       </c>
       <c r="C163" s="8">
-        <v>43596.71875</v>
+        <v>43601.625</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B164" s="8">
-        <v>43601.416666666664</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C164" s="8">
-        <v>43601.625</v>
+        <v>43604.666666666664</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B165" s="8">
-        <v>43604.423611111109</v>
+        <v>43604.9375</v>
       </c>
       <c r="C165" s="8">
-        <v>43604.666666666664</v>
+        <v>43605.75</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B166" s="8">
-        <v>43604.9375</v>
+        <v>43607.333333333336</v>
       </c>
       <c r="C166" s="8">
-        <v>43605.75</v>
+        <v>43607.916666666664</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="167" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B167" s="8">
-        <v>43607.333333333336</v>
+        <v>43608.520833333336</v>
       </c>
       <c r="C167" s="8">
-        <v>43607.916666666664</v>
+        <v>43608.854166666664</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B168" s="8">
-        <v>43608.520833333336</v>
+        <v>43611.375</v>
       </c>
       <c r="C168" s="8">
-        <v>43608.854166666664</v>
+        <v>43612.395833333336</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B169" s="8">
-        <v>43611.375</v>
+        <v>43591.395833333336</v>
       </c>
       <c r="C169" s="8">
-        <v>43612.395833333336</v>
+        <v>43591.989583333336</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B170" s="8">
-        <v>43591.395833333336</v>
+        <v>43592.166666666664</v>
       </c>
       <c r="C170" s="8">
-        <v>43591.989583333336</v>
+        <v>43594.083333333336</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B171" s="8">
-        <v>43592.166666666664</v>
+        <v>43595.270833333336</v>
       </c>
       <c r="C171" s="8">
-        <v>43594.083333333336</v>
+        <v>43595.583333333336</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B172" s="8">
-        <v>43595.270833333336</v>
+        <v>43596.333333333336</v>
       </c>
       <c r="C172" s="8">
-        <v>43595.583333333336</v>
+        <v>43597.958333333336</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E172" s="7"/>
+    </row>
+    <row r="173" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B173" s="8">
-        <v>43596.333333333336</v>
+        <v>43601.416666666664</v>
       </c>
       <c r="C173" s="8">
-        <v>43597.958333333336</v>
+        <v>43602.166666666664</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="174" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B174" s="8">
-        <v>43601.416666666664</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C174" s="8">
-        <v>43602.166666666664</v>
+        <v>43606.5</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B175" s="8">
-        <v>43604.416666666664</v>
+        <v>43607.222222222219</v>
       </c>
       <c r="C175" s="8">
-        <v>43606.5</v>
+        <v>43608.958333333336</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="176" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B176" s="8">
-        <v>43607.222222222219</v>
+        <v>43611.375</v>
       </c>
       <c r="C176" s="8">
-        <v>43608.958333333336</v>
+        <v>43613.416666666664</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B177" s="8">
-        <v>43611.375</v>
+        <v>43586</v>
       </c>
       <c r="C177" s="8">
-        <v>43613.416666666664</v>
+        <v>43589.5</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B178" s="8">
-        <v>43586</v>
+        <v>43591.402777777781</v>
       </c>
       <c r="C178" s="8">
-        <v>43589.5</v>
+        <v>43591.708333333336</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B179" s="8">
-        <v>43591.402777777781</v>
+        <v>43592.166666666664</v>
       </c>
       <c r="C179" s="8">
-        <v>43591.708333333336</v>
+        <v>43592.625</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B180" s="8">
-        <v>43592.166666666664</v>
+        <v>43593.833333333336</v>
       </c>
       <c r="C180" s="8">
-        <v>43592.625</v>
+        <v>43594.041666666664</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E180" s="7"/>
+    </row>
+    <row r="181" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="8">
-        <v>43593.833333333336</v>
+        <v>43594.875</v>
       </c>
       <c r="C181" s="8">
-        <v>43594.041666666664</v>
+        <v>43595.4375</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B182" s="8">
-        <v>43594.875</v>
+        <v>43596.333333333336</v>
       </c>
       <c r="C182" s="8">
-        <v>43595.4375</v>
+        <v>43596.666666666664</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B183" s="8">
-        <v>43596.333333333336</v>
+        <v>43601.416666666664</v>
       </c>
       <c r="C183" s="8">
-        <v>43596.666666666664</v>
+        <v>43602.166666666664</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B184" s="8">
-        <v>43601.416666666664</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C184" s="8">
-        <v>43602.166666666664</v>
+        <v>43606.5</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B185" s="8">
-        <v>43604.416666666664</v>
+        <v>43607.222222222219</v>
       </c>
       <c r="C185" s="8">
-        <v>43606.5</v>
+        <v>43608.958333333336</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B186" s="8">
-        <v>43607.222222222219</v>
+        <v>43611.375</v>
       </c>
       <c r="C186" s="8">
-        <v>43608.958333333336</v>
+        <v>43612.5</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B187" s="8">
-        <v>43611.375</v>
+        <v>43591.378472222197</v>
       </c>
       <c r="C187" s="8">
-        <v>43612.5</v>
+        <v>43591.565972222219</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>40</v>
       </c>
@@ -5300,27 +5321,29 @@
         <v>43591.378472222197</v>
       </c>
       <c r="C188" s="8">
-        <v>43591.565972222219</v>
+        <v>43591.666666666664</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B189" s="8">
-        <v>43591.378472222197</v>
+        <v>43592.125</v>
       </c>
       <c r="C189" s="8">
-        <v>43591.666666666664</v>
+        <v>43592.5</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E189" s="7"/>
+    </row>
+    <row r="190" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>40</v>
       </c>
@@ -5328,153 +5351,155 @@
         <v>43592.125</v>
       </c>
       <c r="C190" s="8">
-        <v>43592.5</v>
+        <v>43592.625</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B191" s="8">
-        <v>43592.125</v>
+        <v>43595.166666666664</v>
       </c>
       <c r="C191" s="8">
-        <v>43592.625</v>
+        <v>43595.5625</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B192" s="8">
-        <v>43595.166666666664</v>
+        <v>43595.180555555555</v>
       </c>
       <c r="C192" s="8">
-        <v>43595.5625</v>
+        <v>43595.375</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B193" s="8">
-        <v>43595.180555555555</v>
+        <v>43596.083333333336</v>
       </c>
       <c r="C193" s="8">
-        <v>43595.375</v>
+        <v>43596.791666666664</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B194" s="8">
-        <v>43596.083333333336</v>
+        <v>43596.34375</v>
       </c>
       <c r="C194" s="8">
-        <v>43596.791666666664</v>
+        <v>43596.8125</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B195" s="8">
-        <v>43596.34375</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C195" s="8">
-        <v>43596.8125</v>
+        <v>43601.784722222219</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B196" s="8">
-        <v>43601.333333333336</v>
+        <v>43604.427083333336</v>
       </c>
       <c r="C196" s="8">
-        <v>43601.784722222219</v>
+        <v>43605.708333333336</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B197" s="8">
-        <v>43604.427083333336</v>
+        <v>43607.229166666664</v>
       </c>
       <c r="C197" s="8">
-        <v>43605.708333333336</v>
+        <v>43608.65625</v>
       </c>
       <c r="D197" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B198" s="8">
-        <v>43607.229166666664</v>
+        <v>43611.850694444445</v>
       </c>
       <c r="C198" s="8">
-        <v>43608.65625</v>
+        <v>43612.572916666664</v>
       </c>
       <c r="D198" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E198" s="7"/>
+    </row>
+    <row r="199" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B199" s="8">
-        <v>43611.850694444445</v>
+        <v>43633.53125</v>
       </c>
       <c r="C199" s="8">
-        <v>43612.572916666664</v>
+        <v>43634.041666666664</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B200" s="8">
-        <v>43633.53125</v>
+        <v>43591.378472222197</v>
       </c>
       <c r="C200" s="8">
-        <v>43634.041666666664</v>
+        <v>43591.565972222219</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>41</v>
       </c>
@@ -5482,27 +5507,27 @@
         <v>43591.378472222197</v>
       </c>
       <c r="C201" s="8">
-        <v>43591.565972222219</v>
+        <v>43591.875</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B202" s="8">
-        <v>43591.378472222197</v>
+        <v>43592.125</v>
       </c>
       <c r="C202" s="8">
-        <v>43591.875</v>
+        <v>43592.5</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>41</v>
       </c>
@@ -5510,909 +5535,925 @@
         <v>43592.125</v>
       </c>
       <c r="C203" s="8">
-        <v>43592.5</v>
+        <v>43592.791666666664</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B204" s="8">
-        <v>43592.125</v>
+        <v>43593.885416666664</v>
       </c>
       <c r="C204" s="8">
-        <v>43592.791666666664</v>
+        <v>43594.239583333336</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B205" s="8">
-        <v>43593.885416666664</v>
+        <v>43595.166666666664</v>
       </c>
       <c r="C205" s="8">
-        <v>43594.239583333336</v>
+        <v>43595.645833333336</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B206" s="8">
-        <v>43595.166666666664</v>
+        <v>43595.197916666664</v>
       </c>
       <c r="C206" s="8">
-        <v>43595.645833333336</v>
+        <v>43595.548611111109</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B207" s="8">
-        <v>43595.197916666664</v>
+        <v>43596.333333333336</v>
       </c>
       <c r="C207" s="8">
-        <v>43595.548611111109</v>
+        <v>43596.958333333336</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B208" s="8">
-        <v>43596.333333333336</v>
+        <v>43596.34375</v>
       </c>
       <c r="C208" s="8">
-        <v>43596.958333333336</v>
+        <v>43596.8125</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E208" s="7"/>
+    </row>
+    <row r="209" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B209" s="8">
-        <v>43596.34375</v>
+        <v>43601.416666666664</v>
       </c>
       <c r="C209" s="8">
-        <v>43596.8125</v>
+        <v>43601.784722222219</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B210" s="8">
-        <v>43601.416666666664</v>
+        <v>43604.427083333336</v>
       </c>
       <c r="C210" s="8">
-        <v>43601.784722222219</v>
+        <v>43605.708333333336</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B211" s="8">
-        <v>43604.427083333336</v>
+        <v>43607.229166666664</v>
       </c>
       <c r="C211" s="8">
-        <v>43605.708333333336</v>
+        <v>43608.65625</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B212" s="8">
-        <v>43607.229166666664</v>
+        <v>43611.395833333336</v>
       </c>
       <c r="C212" s="8">
-        <v>43608.65625</v>
+        <v>43612.572916666664</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B213" s="8">
-        <v>43611.395833333336</v>
+        <v>43633.135416666664</v>
       </c>
       <c r="C213" s="8">
-        <v>43612.572916666664</v>
+        <v>43633.677083333336</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="214" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B214" s="8">
-        <v>43633.135416666664</v>
+        <v>43586</v>
       </c>
       <c r="C214" s="8">
-        <v>43633.677083333336</v>
+        <v>43598.270833333336</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E214"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B215" s="8">
-        <v>43586</v>
+        <v>43601.375</v>
       </c>
       <c r="C215" s="8">
-        <v>43598.270833333336</v>
+        <v>43601.875</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E215" s="7"/>
+    </row>
+    <row r="216" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B216" s="8">
-        <v>43601.375</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C216" s="8">
-        <v>43601.875</v>
+        <v>43606.083333333336</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B217" s="8">
-        <v>43604.416666666664</v>
+        <v>43606.916666666664</v>
       </c>
       <c r="C217" s="8">
-        <v>43606.083333333336</v>
+        <v>43608.625</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B218" s="8">
-        <v>43606.916666666664</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C218" s="8">
-        <v>43608.625</v>
+        <v>43612.5</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B219" s="8">
-        <v>43611.291666666664</v>
+        <v>43612.5</v>
       </c>
       <c r="C219" s="8">
-        <v>43612.5</v>
+        <v>43633.586805555555</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B220" s="8">
-        <v>43612.5</v>
+        <v>43640.555555555555</v>
       </c>
       <c r="C220" s="8">
-        <v>43633.586805555555</v>
+        <v>43640.625</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B221" s="8">
-        <v>43640.555555555555</v>
+        <v>43591.21875</v>
       </c>
       <c r="C221" s="8">
-        <v>43640.625</v>
+        <v>43591.791666666664</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B222" s="8">
-        <v>43591.21875</v>
+        <v>43592.135416666664</v>
       </c>
       <c r="C222" s="8">
-        <v>43591.791666666664</v>
+        <v>43592.791666666664</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B223" s="8">
-        <v>43592.135416666664</v>
+        <v>43593.270833333336</v>
       </c>
       <c r="C223" s="8">
-        <v>43592.791666666664</v>
+        <v>43593.416666666664</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B224" s="8">
-        <v>43593.270833333336</v>
+        <v>43593.822916666664</v>
       </c>
       <c r="C224" s="8">
-        <v>43593.416666666664</v>
+        <v>43594.375</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="225" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B225" s="8">
-        <v>43593.822916666664</v>
+        <v>43594.854166666664</v>
       </c>
       <c r="C225" s="8">
-        <v>43594.375</v>
+        <v>43595.083333333336</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B226" s="8">
-        <v>43594.854166666664</v>
+        <v>43595.239583333336</v>
       </c>
       <c r="C226" s="8">
-        <v>43595.083333333336</v>
+        <v>43595.333333333336</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E226" s="7"/>
+    </row>
+    <row r="227" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B227" s="8">
-        <v>43595.239583333336</v>
+        <v>43596.333333333336</v>
       </c>
       <c r="C227" s="8">
-        <v>43595.333333333336</v>
+        <v>43596.888888888898</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="228" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B228" s="8">
-        <v>43596.333333333336</v>
+        <v>43601.375</v>
       </c>
       <c r="C228" s="8">
-        <v>43596.888888888898</v>
+        <v>43601.875</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B229" s="8">
-        <v>43601.375</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C229" s="8">
-        <v>43601.875</v>
+        <v>43606.083333333336</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="230" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B230" s="8">
-        <v>43604.416666666664</v>
+        <v>43606.916666666664</v>
       </c>
       <c r="C230" s="8">
-        <v>43606.083333333336</v>
+        <v>43608.625</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B231" s="8">
-        <v>43606.916666666664</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C231" s="8">
-        <v>43608.625</v>
+        <v>43612.5</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B232" s="8">
-        <v>43611.291666666664</v>
-      </c>
-      <c r="C232" s="8">
-        <v>43612.5</v>
+        <v>14</v>
+      </c>
+      <c r="B232" s="23">
+        <v>43591.375</v>
+      </c>
+      <c r="C232" s="23">
+        <v>43591.513888888891</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="233" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B233" s="23">
-        <v>43591.375</v>
-      </c>
-      <c r="C233" s="23">
-        <v>43591.513888888891</v>
+      <c r="B233" s="8">
+        <v>43591.46875</v>
+      </c>
+      <c r="C233" s="8">
+        <v>43591.875</v>
       </c>
       <c r="D233" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="234" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B234" s="8">
-        <v>43591.46875</v>
-      </c>
-      <c r="C234" s="8">
-        <v>43591.875</v>
+      <c r="B234" s="27">
+        <v>43592.152777777781</v>
+      </c>
+      <c r="C234" s="23">
+        <v>43592.614583333336</v>
       </c>
       <c r="D234" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B235" s="27">
-        <v>43592.152777777781</v>
-      </c>
-      <c r="C235" s="23">
-        <v>43592.614583333336</v>
+      <c r="B235" s="8">
+        <v>43592.34375</v>
+      </c>
+      <c r="C235" s="8">
+        <v>43592.791666666664</v>
       </c>
       <c r="D235" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E235" s="7"/>
+    </row>
+    <row r="236" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B236" s="8">
-        <v>43592.34375</v>
-      </c>
-      <c r="C236" s="8">
-        <v>43592.791666666664</v>
+      <c r="B236" s="23">
+        <v>43593.815972222219</v>
+      </c>
+      <c r="C236" s="23">
+        <v>43594.416666666664</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="237" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B237" s="23">
-        <v>43593.815972222219</v>
-      </c>
-      <c r="C237" s="23">
-        <v>43594.416666666664</v>
+      <c r="B237" s="8">
+        <v>43594.041666666664</v>
+      </c>
+      <c r="C237" s="8">
+        <v>43594.75</v>
       </c>
       <c r="D237" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B238" s="8">
-        <v>43594.041666666664</v>
-      </c>
-      <c r="C238" s="8">
-        <v>43594.75</v>
+      <c r="B238" s="23">
+        <v>43594.850694444445</v>
+      </c>
+      <c r="C238" s="23">
+        <v>43594.979166666664</v>
       </c>
       <c r="D238" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B239" s="23">
-        <v>43594.850694444445</v>
+        <v>43596.1875</v>
       </c>
       <c r="C239" s="23">
-        <v>43594.979166666664</v>
+        <v>43597.076388888891</v>
       </c>
       <c r="D239" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B240" s="23">
-        <v>43596.1875</v>
-      </c>
-      <c r="C240" s="23">
-        <v>43597.076388888891</v>
+      <c r="B240" s="8">
+        <v>43596.333333333336</v>
+      </c>
+      <c r="C240" s="8">
+        <v>43597.166666666664</v>
       </c>
       <c r="D240" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B241" s="8">
-        <v>43596.333333333336</v>
-      </c>
-      <c r="C241" s="8">
-        <v>43597.166666666664</v>
+      <c r="B241" s="23">
+        <v>43601.409722222219</v>
+      </c>
+      <c r="C241" s="23">
+        <v>43601.743055555555</v>
       </c>
       <c r="D241" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B242" s="23">
-        <v>43601.409722222219</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C242" s="23">
-        <v>43601.743055555555</v>
+        <v>43620.5</v>
       </c>
       <c r="D242" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="243" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B243" s="23">
-        <v>43604.423611111109</v>
+        <v>43626.302083333336</v>
       </c>
       <c r="C243" s="23">
-        <v>43620.5</v>
+        <v>43627.010416666664</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E243"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B244" s="23">
-        <v>43626.302083333336</v>
+        <v>43630.725694444445</v>
       </c>
       <c r="C244" s="23">
-        <v>43627.010416666664</v>
+        <v>43631.21875</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E244" s="7"/>
+    </row>
+    <row r="245" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B245" s="23">
-        <v>43630.725694444445</v>
+        <v>43591.375</v>
       </c>
       <c r="C245" s="23">
-        <v>43631.21875</v>
+        <v>43591.513888888891</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B246" s="23">
-        <v>43591.375</v>
-      </c>
-      <c r="C246" s="23">
-        <v>43591.513888888891</v>
+      <c r="B246" s="8">
+        <v>43591.645833333336</v>
+      </c>
+      <c r="C246" s="8">
+        <v>43591.875</v>
       </c>
       <c r="D246" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B247" s="8">
-        <v>43591.645833333336</v>
-      </c>
-      <c r="C247" s="8">
-        <v>43591.875</v>
+      <c r="B247" s="27">
+        <v>43592.152777777781</v>
+      </c>
+      <c r="C247" s="23">
+        <v>43592.614583333336</v>
       </c>
       <c r="D247" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B248" s="27">
-        <v>43592.152777777781</v>
-      </c>
-      <c r="C248" s="23">
-        <v>43592.614583333336</v>
+      <c r="B248" s="8">
+        <v>43592.427083333336</v>
+      </c>
+      <c r="C248" s="8">
+        <v>43592.75</v>
       </c>
       <c r="D248" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B249" s="8">
-        <v>43592.427083333336</v>
-      </c>
-      <c r="C249" s="8">
-        <v>43592.75</v>
+      <c r="B249" s="23">
+        <v>43593.815972222219</v>
+      </c>
+      <c r="C249" s="23">
+        <v>43594.416666666664</v>
       </c>
       <c r="D249" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B250" s="23">
-        <v>43593.815972222219</v>
-      </c>
-      <c r="C250" s="23">
-        <v>43594.416666666664</v>
+      <c r="B250" s="8">
+        <v>43594.083333333336</v>
+      </c>
+      <c r="C250" s="8">
+        <v>43594.291666666664</v>
       </c>
       <c r="D250" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B251" s="8">
-        <v>43594.083333333336</v>
+        <v>43594.5</v>
       </c>
       <c r="C251" s="8">
-        <v>43594.291666666664</v>
+        <v>43594.625</v>
       </c>
       <c r="D251" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B252" s="8">
-        <v>43594.5</v>
-      </c>
-      <c r="C252" s="8">
-        <v>43594.625</v>
+      <c r="B252" s="23">
+        <v>43594.850694444445</v>
+      </c>
+      <c r="C252" s="23">
+        <v>43594.979166666664</v>
       </c>
       <c r="D252" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B253" s="23">
-        <v>43594.850694444445</v>
-      </c>
-      <c r="C253" s="23">
-        <v>43594.979166666664</v>
+      <c r="B253" s="8">
+        <v>43594.875</v>
+      </c>
+      <c r="C253" s="8">
+        <v>43595</v>
       </c>
       <c r="D253" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B254" s="8">
-        <v>43594.875</v>
-      </c>
-      <c r="C254" s="8">
-        <v>43595</v>
+      <c r="B254" s="23">
+        <v>43596.1875</v>
+      </c>
+      <c r="C254" s="23">
+        <v>43597.076388888891</v>
       </c>
       <c r="D254" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E254" s="7"/>
+    </row>
+    <row r="255" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B255" s="23">
-        <v>43596.1875</v>
-      </c>
-      <c r="C255" s="23">
-        <v>43597.076388888891</v>
+      <c r="B255" s="8">
+        <v>43596.583333333336</v>
+      </c>
+      <c r="C255" s="8">
+        <v>43597.166666666664</v>
       </c>
       <c r="D255" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B256" s="8">
-        <v>43596.583333333336</v>
-      </c>
-      <c r="C256" s="8">
-        <v>43597.166666666664</v>
+      <c r="B256" s="23">
+        <v>43601.409722222219</v>
+      </c>
+      <c r="C256" s="23">
+        <v>43601.743055555555</v>
       </c>
       <c r="D256" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="257" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B257" s="23">
-        <v>43601.409722222219</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C257" s="23">
-        <v>43601.743055555555</v>
+        <v>43634.40625</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B258" s="23">
-        <v>43604.423611111109</v>
+        <v>43657.003472222219</v>
       </c>
       <c r="C258" s="23">
-        <v>43634.40625</v>
+        <v>43657.055555555555</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E258"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B259" s="23">
-        <v>43657.003472222219</v>
+        <v>43591.375</v>
       </c>
       <c r="C259" s="23">
-        <v>43657.055555555555</v>
+        <v>43591.75</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E259" s="7"/>
+    </row>
+    <row r="260" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B260" s="23">
-        <v>43591.375</v>
+      <c r="B260" s="27">
+        <v>43592.166666666664</v>
       </c>
       <c r="C260" s="23">
-        <v>43591.75</v>
+        <v>43592.614583333336</v>
       </c>
       <c r="D260" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B261" s="27">
-        <v>43592.166666666664</v>
+      <c r="B261" s="23">
+        <v>43593.836805555555</v>
       </c>
       <c r="C261" s="23">
-        <v>43592.614583333336</v>
+        <v>43594.416666666664</v>
       </c>
       <c r="D261" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B262" s="23">
-        <v>43593.836805555555</v>
+        <v>43596.1875</v>
       </c>
       <c r="C262" s="23">
-        <v>43594.416666666664</v>
+        <v>43597.076388888891</v>
       </c>
       <c r="D262" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B263" s="23">
-        <v>43596.1875</v>
+        <v>43601.409722222219</v>
       </c>
       <c r="C263" s="23">
-        <v>43597.076388888891</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D263" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B264" s="23">
-        <v>43601.409722222219</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C264" s="23">
-        <v>43601.743055555555</v>
+        <v>43605.923611111109</v>
       </c>
       <c r="D264" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B265" s="23">
-        <v>43604.423611111109</v>
+        <v>43607.1875</v>
       </c>
       <c r="C265" s="23">
-        <v>43605.923611111109</v>
+        <v>43608.715277777781</v>
       </c>
       <c r="D265" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B266" s="23">
-        <v>43607.1875</v>
+        <v>43611.375</v>
       </c>
       <c r="C266" s="23">
-        <v>43608.715277777781</v>
+        <v>43612.739583333336</v>
       </c>
       <c r="D266" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B267" s="23">
-        <v>43611.375</v>
+        <v>43633</v>
       </c>
       <c r="C267" s="23">
-        <v>43612.739583333336</v>
+        <v>43635</v>
       </c>
       <c r="D267" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E267" s="7"/>
+    </row>
+    <row r="268" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>16</v>
       </c>
@@ -6422,520 +6463,528 @@
       <c r="C268" s="23">
         <v>43635</v>
       </c>
-      <c r="D268" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B269" s="23">
-        <v>43633</v>
+        <v>43654.003472222219</v>
       </c>
       <c r="C269" s="23">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43654.013888888891</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B270" s="23">
-        <v>43654.003472222219</v>
-      </c>
-      <c r="C270" s="23">
-        <v>43654.013888888891</v>
+        <v>32</v>
+      </c>
+      <c r="B270" s="8">
+        <v>43591.6875</v>
+      </c>
+      <c r="C270" s="8">
+        <v>43591.833333333336</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B271" s="8">
-        <v>43591.6875</v>
-      </c>
-      <c r="C271" s="8">
-        <v>43591.833333333336</v>
+      <c r="B271" s="27">
+        <v>43592.166666666664</v>
+      </c>
+      <c r="C271" s="23">
+        <v>43596.621527777781</v>
       </c>
       <c r="D271" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B272" s="27">
-        <v>43592.166666666664</v>
-      </c>
-      <c r="C272" s="23">
-        <v>43596.621527777781</v>
+      <c r="B272" s="8">
+        <v>43592.40625</v>
+      </c>
+      <c r="C272" s="8">
+        <v>43592.708333333336</v>
       </c>
       <c r="D272" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B273" s="8">
-        <v>43592.40625</v>
+        <v>43594.114583333336</v>
       </c>
       <c r="C273" s="8">
-        <v>43592.708333333336</v>
+        <v>43594.791666666664</v>
       </c>
       <c r="D273" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E273" s="7"/>
+    </row>
+    <row r="274" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B274" s="8">
-        <v>43594.114583333336</v>
-      </c>
-      <c r="C274" s="8">
-        <v>43594.791666666664</v>
+      <c r="B274" s="23">
+        <v>43594.895833333336</v>
+      </c>
+      <c r="C274" s="23">
+        <v>43595.53125</v>
       </c>
       <c r="D274" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B275" s="23">
-        <v>43594.895833333336</v>
-      </c>
-      <c r="C275" s="23">
-        <v>43595.53125</v>
+      <c r="B275" s="8">
+        <v>43596.458333333336</v>
+      </c>
+      <c r="C275" s="8">
+        <v>43596.875</v>
       </c>
       <c r="D275" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B276" s="8">
-        <v>43596.458333333336</v>
-      </c>
-      <c r="C276" s="8">
-        <v>43596.875</v>
+      <c r="B276" s="23">
+        <v>43601.409722222219</v>
+      </c>
+      <c r="C276" s="23">
+        <v>43601.743055555555</v>
       </c>
       <c r="D276" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B277" s="23">
-        <v>43601.409722222219</v>
+        <v>43604.340277777781</v>
       </c>
       <c r="C277" s="23">
-        <v>43601.743055555555</v>
+        <v>43605.552083333336</v>
       </c>
       <c r="D277" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="278" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B278" s="23">
-        <v>43604.340277777781</v>
+        <v>43607.052083333336</v>
       </c>
       <c r="C278" s="23">
-        <v>43605.552083333336</v>
+        <v>43608.579861111109</v>
       </c>
       <c r="D278" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="279" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B279" s="23">
-        <v>43607.052083333336</v>
+        <v>43611.888888888891</v>
       </c>
       <c r="C279" s="23">
-        <v>43608.579861111109</v>
+        <v>43613.666666666664</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="280" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3" t="s">
-        <v>32</v>
+    <row r="280" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B280" s="23">
-        <v>43611.888888888891</v>
+        <v>43591.375</v>
       </c>
       <c r="C280" s="23">
-        <v>43613.666666666664</v>
+        <v>43591.590277777781</v>
       </c>
       <c r="D280" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B281" s="23">
-        <v>43591.375</v>
-      </c>
-      <c r="C281" s="23">
-        <v>43591.590277777781</v>
+      <c r="B281" s="8">
+        <v>43591.604166666664</v>
+      </c>
+      <c r="C281" s="8">
+        <v>43591.916666666664</v>
       </c>
       <c r="D281" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B282" s="8">
-        <v>43591.604166666664</v>
-      </c>
-      <c r="C282" s="8">
-        <v>43591.916666666664</v>
+      <c r="B282" s="27">
+        <v>43592.166666666664</v>
+      </c>
+      <c r="C282" s="23">
+        <v>43592.510416666664</v>
       </c>
       <c r="D282" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E282" s="7"/>
+    </row>
+    <row r="283" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B283" s="27">
-        <v>43592.166666666664</v>
-      </c>
-      <c r="C283" s="23">
-        <v>43592.510416666664</v>
+      <c r="B283" s="8">
+        <v>43592.40625</v>
+      </c>
+      <c r="C283" s="8">
+        <v>43592.833333333336</v>
       </c>
       <c r="D283" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="284" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B284" s="8">
-        <v>43592.40625</v>
-      </c>
-      <c r="C284" s="8">
-        <v>43592.833333333336</v>
+      <c r="B284" s="23">
+        <v>43594.895833333336</v>
+      </c>
+      <c r="C284" s="23">
+        <v>43595.53125</v>
       </c>
       <c r="D284" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="285" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B285" s="23">
-        <v>43594.895833333336</v>
-      </c>
-      <c r="C285" s="23">
-        <v>43595.53125</v>
+      <c r="B285" s="8">
+        <v>43595.114583333336</v>
+      </c>
+      <c r="C285" s="8">
+        <v>43595.875</v>
       </c>
       <c r="D285" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="286" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B286" s="8">
-        <v>43595.114583333336</v>
-      </c>
-      <c r="C286" s="8">
-        <v>43595.875</v>
+      <c r="B286" s="23">
+        <v>43596.322916666664</v>
+      </c>
+      <c r="C286" s="23">
+        <v>43596.621527777781</v>
       </c>
       <c r="D286" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="287" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B287" s="23">
-        <v>43596.322916666664</v>
-      </c>
-      <c r="C287" s="23">
-        <v>43596.621527777781</v>
+      <c r="B287" s="8">
+        <v>43596.458333333336</v>
+      </c>
+      <c r="C287" s="8">
+        <v>43596.958333333336</v>
       </c>
       <c r="D287" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="288" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B288" s="8">
-        <v>43596.458333333336</v>
-      </c>
-      <c r="C288" s="8">
-        <v>43596.958333333336</v>
+      <c r="B288" s="23">
+        <v>43601.409722222219</v>
+      </c>
+      <c r="C288" s="23">
+        <v>43601.743055555555</v>
       </c>
       <c r="D288" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="289" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B289" s="23">
-        <v>43601.409722222219</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C289" s="23">
-        <v>43601.743055555555</v>
+        <v>43605.552083333336</v>
       </c>
       <c r="D289" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B290" s="23">
-        <v>43604.423611111109</v>
+        <v>43607.322916666664</v>
       </c>
       <c r="C290" s="23">
-        <v>43605.552083333336</v>
+        <v>43608.579861111109</v>
       </c>
       <c r="D290" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B291" s="23">
-        <v>43607.322916666664</v>
+        <v>43611.375</v>
       </c>
       <c r="C291" s="23">
-        <v>43608.579861111109</v>
+        <v>43613.666666666664</v>
       </c>
       <c r="D291" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B292" s="23">
-        <v>43611.375</v>
+      <c r="E291" s="7"/>
+    </row>
+    <row r="292" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B292" s="27">
+        <v>43592.083333333336</v>
       </c>
       <c r="C292" s="23">
-        <v>43613.666666666664</v>
-      </c>
-      <c r="D292" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="24" t="s">
+        <v>43596.854166666664</v>
+      </c>
+      <c r="D292" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B293" s="27">
-        <v>43592.083333333336</v>
-      </c>
-      <c r="C293" s="23">
-        <v>43596.854166666664</v>
-      </c>
-      <c r="D293" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="8">
+        <v>43592.364583333299</v>
+      </c>
+      <c r="C293" s="8">
+        <v>43592.666666666664</v>
+      </c>
+      <c r="D293" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B294" s="8">
-        <v>43592.364583333299</v>
+        <v>43596.583333333336</v>
       </c>
       <c r="C294" s="8">
-        <v>43592.666666666664</v>
+        <v>43597.041666666664</v>
       </c>
       <c r="D294" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="295" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="7" t="s">
+    <row r="295" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B295" s="8">
-        <v>43596.583333333336</v>
-      </c>
-      <c r="C295" s="8">
-        <v>43597.041666666664</v>
-      </c>
-      <c r="D295" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="23">
+        <v>43601.333333333336</v>
+      </c>
+      <c r="C295" s="23">
+        <v>43601.743055555555</v>
+      </c>
+      <c r="D295" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B296" s="23">
-        <v>43601.333333333336</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C296" s="23">
-        <v>43601.743055555555</v>
+        <v>43606.09375</v>
       </c>
       <c r="D296" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B297" s="23">
-        <v>43604.423611111109</v>
+        <v>43607.059027777781</v>
       </c>
       <c r="C297" s="23">
-        <v>43606.09375</v>
+        <v>43608.868055555555</v>
       </c>
       <c r="D297" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B298" s="23">
-        <v>43607.059027777781</v>
+        <v>43611.375</v>
       </c>
       <c r="C298" s="23">
-        <v>43608.868055555555</v>
+        <v>43612.815972222219</v>
       </c>
       <c r="D298" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="299" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B299" s="23">
-        <v>43611.375</v>
+        <v>43634.013888888891</v>
       </c>
       <c r="C299" s="23">
-        <v>43612.815972222219</v>
+        <v>43634.506944444445</v>
       </c>
       <c r="D299" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="24" t="s">
-        <v>33</v>
+    <row r="300" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B300" s="23">
-        <v>43634.013888888891</v>
+        <v>43591.375</v>
       </c>
       <c r="C300" s="23">
-        <v>43634.506944444445</v>
-      </c>
-      <c r="D300" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43591.836805555555</v>
+      </c>
+      <c r="D300" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B301" s="23">
-        <v>43591.375</v>
-      </c>
-      <c r="C301" s="23">
-        <v>43591.836805555555</v>
+      <c r="B301" s="8">
+        <v>43591.604166666664</v>
+      </c>
+      <c r="C301" s="8">
+        <v>43593.6875</v>
       </c>
       <c r="D301" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="302" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B302" s="8">
-        <v>43591.604166666664</v>
-      </c>
-      <c r="C302" s="8">
-        <v>43593.6875</v>
+      <c r="B302" s="27">
+        <v>43592.083333333336</v>
+      </c>
+      <c r="C302" s="23">
+        <v>43592.631944444445</v>
       </c>
       <c r="D302" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B303" s="27">
-        <v>43592.083333333336</v>
+      <c r="B303" s="23">
+        <v>43595.104166666664</v>
       </c>
       <c r="C303" s="23">
-        <v>43592.631944444445</v>
+        <v>43595.649305555555</v>
       </c>
       <c r="D303" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B304" s="23">
-        <v>43595.104166666664</v>
-      </c>
-      <c r="C304" s="23">
-        <v>43595.649305555555</v>
+      <c r="B304" s="8">
+        <v>43595.125</v>
+      </c>
+      <c r="C304" s="8">
+        <v>43596.333333333336</v>
       </c>
       <c r="D304" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="E304" s="7"/>
     </row>
     <row r="305" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B305" s="8">
-        <v>43595.125</v>
-      </c>
-      <c r="C305" s="8">
-        <v>43596.333333333336</v>
+      <c r="B305" s="23">
+        <v>43596.322916666664</v>
+      </c>
+      <c r="C305" s="23">
+        <v>43596.854166666664</v>
       </c>
       <c r="D305" s="7" t="s">
         <v>47</v>
@@ -6945,11 +6994,11 @@
       <c r="A306" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B306" s="23">
-        <v>43596.322916666664</v>
-      </c>
-      <c r="C306" s="23">
-        <v>43596.854166666664</v>
+      <c r="B306" s="8">
+        <v>43596.604166666664</v>
+      </c>
+      <c r="C306" s="8">
+        <v>43597.458333333336</v>
       </c>
       <c r="D306" s="7" t="s">
         <v>47</v>
@@ -6959,25 +7008,26 @@
       <c r="A307" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B307" s="8">
-        <v>43596.604166666664</v>
-      </c>
-      <c r="C307" s="8">
-        <v>43597.458333333336</v>
+      <c r="B307" s="23">
+        <v>43601.333333333336</v>
+      </c>
+      <c r="C307" s="23">
+        <v>43601.743055555555</v>
       </c>
       <c r="D307" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="E307"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B308" s="23">
-        <v>43601.333333333336</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C308" s="23">
-        <v>43601.743055555555</v>
+        <v>43606.09375</v>
       </c>
       <c r="D308" s="7" t="s">
         <v>47</v>
@@ -6988,10 +7038,10 @@
         <v>34</v>
       </c>
       <c r="B309" s="23">
-        <v>43604.423611111109</v>
+        <v>43606.885416666664</v>
       </c>
       <c r="C309" s="23">
-        <v>43606.09375</v>
+        <v>43608.868055555555</v>
       </c>
       <c r="D309" s="7" t="s">
         <v>47</v>
@@ -7002,10 +7052,10 @@
         <v>34</v>
       </c>
       <c r="B310" s="23">
-        <v>43606.885416666664</v>
+        <v>43611.375</v>
       </c>
       <c r="C310" s="23">
-        <v>43608.868055555555</v>
+        <v>43612.815972222219</v>
       </c>
       <c r="D310" s="7" t="s">
         <v>47</v>
@@ -7013,27 +7063,28 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B311" s="23">
-        <v>43611.375</v>
+        <v>43591.375</v>
       </c>
       <c r="C311" s="23">
-        <v>43612.815972222219</v>
+        <v>43591.59375</v>
       </c>
       <c r="D311" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="E311" s="7"/>
     </row>
     <row r="312" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B312" s="23">
-        <v>43591.375</v>
-      </c>
-      <c r="C312" s="23">
-        <v>43591.59375</v>
+      <c r="B312" s="8">
+        <v>43591.520833333336</v>
+      </c>
+      <c r="C312" s="8">
+        <v>43592</v>
       </c>
       <c r="D312" s="7" t="s">
         <v>47</v>
@@ -7043,11 +7094,11 @@
       <c r="A313" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B313" s="8">
-        <v>43591.520833333336</v>
-      </c>
-      <c r="C313" s="8">
-        <v>43592</v>
+      <c r="B313" s="27">
+        <v>43592.083333333336</v>
+      </c>
+      <c r="C313" s="23">
+        <v>43592.569444444445</v>
       </c>
       <c r="D313" s="7" t="s">
         <v>47</v>
@@ -7057,11 +7108,11 @@
       <c r="A314" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B314" s="27">
-        <v>43592.083333333336</v>
-      </c>
-      <c r="C314" s="23">
-        <v>43592.569444444445</v>
+      <c r="B314" s="8">
+        <v>43592.364583333336</v>
+      </c>
+      <c r="C314" s="8">
+        <v>43592.958333333336</v>
       </c>
       <c r="D314" s="7" t="s">
         <v>47</v>
@@ -7071,11 +7122,11 @@
       <c r="A315" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B315" s="8">
-        <v>43592.364583333336</v>
-      </c>
-      <c r="C315" s="8">
-        <v>43592.958333333336</v>
+      <c r="B315" s="23">
+        <v>43595.104166666664</v>
+      </c>
+      <c r="C315" s="23">
+        <v>43595.534722222219</v>
       </c>
       <c r="D315" s="7" t="s">
         <v>47</v>
@@ -7085,11 +7136,11 @@
       <c r="A316" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B316" s="23">
-        <v>43595.104166666664</v>
-      </c>
-      <c r="C316" s="23">
-        <v>43595.534722222219</v>
+      <c r="B316" s="8">
+        <v>43595.208333333336</v>
+      </c>
+      <c r="C316" s="8">
+        <v>43595.75</v>
       </c>
       <c r="D316" s="7" t="s">
         <v>47</v>
@@ -7099,11 +7150,11 @@
       <c r="A317" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B317" s="8">
-        <v>43595.208333333336</v>
-      </c>
-      <c r="C317" s="8">
-        <v>43595.75</v>
+      <c r="B317" s="23">
+        <v>43596.322916666664</v>
+      </c>
+      <c r="C317" s="23">
+        <v>43596.84375</v>
       </c>
       <c r="D317" s="7" t="s">
         <v>47</v>
@@ -7113,11 +7164,11 @@
       <c r="A318" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B318" s="23">
-        <v>43596.322916666664</v>
-      </c>
-      <c r="C318" s="23">
-        <v>43596.84375</v>
+      <c r="B318" s="8">
+        <v>43596.5</v>
+      </c>
+      <c r="C318" s="8">
+        <v>43597.083333333336</v>
       </c>
       <c r="D318" s="7" t="s">
         <v>47</v>
@@ -7128,11 +7179,11 @@
       <c r="A319" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B319" s="8">
-        <v>43596.5</v>
-      </c>
-      <c r="C319" s="8">
-        <v>43597.083333333336</v>
+      <c r="B319" s="23">
+        <v>43601.333333333336</v>
+      </c>
+      <c r="C319" s="23">
+        <v>43601.680555555555</v>
       </c>
       <c r="D319" s="7" t="s">
         <v>47</v>
@@ -7143,10 +7194,10 @@
         <v>35</v>
       </c>
       <c r="B320" s="23">
-        <v>43601.333333333336</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C320" s="23">
-        <v>43601.680555555555</v>
+        <v>43605.71875</v>
       </c>
       <c r="D320" s="7" t="s">
         <v>47</v>
@@ -7157,10 +7208,10 @@
         <v>35</v>
       </c>
       <c r="B321" s="23">
-        <v>43604.423611111109</v>
+        <v>43606.090277777781</v>
       </c>
       <c r="C321" s="23">
-        <v>43605.71875</v>
+        <v>43606.173611111109</v>
       </c>
       <c r="D321" s="7" t="s">
         <v>47</v>
@@ -7171,10 +7222,10 @@
         <v>35</v>
       </c>
       <c r="B322" s="23">
-        <v>43606.090277777781</v>
+        <v>43606.958333333336</v>
       </c>
       <c r="C322" s="23">
-        <v>43606.173611111109</v>
+        <v>43608.552083333336</v>
       </c>
       <c r="D322" s="7" t="s">
         <v>47</v>
@@ -7186,10 +7237,10 @@
         <v>35</v>
       </c>
       <c r="B323" s="23">
-        <v>43606.958333333336</v>
+        <v>43611.375</v>
       </c>
       <c r="C323" s="23">
-        <v>43608.552083333336</v>
+        <v>43612.309027777781</v>
       </c>
       <c r="D323" s="7" t="s">
         <v>47</v>
@@ -7197,15 +7248,15 @@
     </row>
     <row r="324" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B324" s="23">
-        <v>43611.375</v>
+        <v>43591.375</v>
       </c>
       <c r="C324" s="23">
-        <v>43612.309027777781</v>
-      </c>
-      <c r="D324" s="7" t="s">
+        <v>43591.520833333336</v>
+      </c>
+      <c r="D324" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7213,13 +7264,13 @@
       <c r="A325" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B325" s="23">
-        <v>43591.375</v>
-      </c>
-      <c r="C325" s="23">
-        <v>43591.520833333336</v>
-      </c>
-      <c r="D325" s="24" t="s">
+      <c r="B325" s="8">
+        <v>43591.645833333336</v>
+      </c>
+      <c r="C325" s="8">
+        <v>43592.041666666664</v>
+      </c>
+      <c r="D325" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7227,13 +7278,13 @@
       <c r="A326" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B326" s="8">
-        <v>43591.645833333336</v>
-      </c>
-      <c r="C326" s="8">
-        <v>43592.041666666664</v>
-      </c>
-      <c r="D326" s="7" t="s">
+      <c r="B326" s="27">
+        <v>43592.159722222219</v>
+      </c>
+      <c r="C326" s="23">
+        <v>43592.427083333336</v>
+      </c>
+      <c r="D326" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7241,13 +7292,13 @@
       <c r="A327" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B327" s="27">
-        <v>43592.159722222219</v>
-      </c>
-      <c r="C327" s="23">
+      <c r="B327" s="8">
         <v>43592.427083333336</v>
       </c>
-      <c r="D327" s="24" t="s">
+      <c r="C327" s="8">
+        <v>43593.041666666664</v>
+      </c>
+      <c r="D327" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7255,13 +7306,13 @@
       <c r="A328" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B328" s="8">
-        <v>43592.427083333336</v>
-      </c>
-      <c r="C328" s="8">
-        <v>43593.041666666664</v>
-      </c>
-      <c r="D328" s="7" t="s">
+      <c r="B328" s="23">
+        <v>43595.263888888891</v>
+      </c>
+      <c r="C328" s="23">
+        <v>43595.534722222219</v>
+      </c>
+      <c r="D328" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7269,13 +7320,13 @@
       <c r="A329" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B329" s="23">
-        <v>43595.263888888891</v>
-      </c>
-      <c r="C329" s="23">
-        <v>43595.534722222219</v>
-      </c>
-      <c r="D329" s="24" t="s">
+      <c r="B329" s="8">
+        <v>43595.416666666664</v>
+      </c>
+      <c r="C329" s="8">
+        <v>43595.916666666664</v>
+      </c>
+      <c r="D329" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7283,13 +7334,13 @@
       <c r="A330" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B330" s="8">
-        <v>43595.416666666664</v>
-      </c>
-      <c r="C330" s="8">
-        <v>43595.916666666664</v>
-      </c>
-      <c r="D330" s="7" t="s">
+      <c r="B330" s="23">
+        <v>43596.322916666664</v>
+      </c>
+      <c r="C330" s="23">
+        <v>43596.84375</v>
+      </c>
+      <c r="D330" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7297,13 +7348,13 @@
       <c r="A331" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B331" s="23">
-        <v>43596.322916666664</v>
-      </c>
-      <c r="C331" s="23">
-        <v>43596.84375</v>
-      </c>
-      <c r="D331" s="24" t="s">
+      <c r="B331" s="8">
+        <v>43596.458333333336</v>
+      </c>
+      <c r="C331" s="8">
+        <v>43597.333333333336</v>
+      </c>
+      <c r="D331" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7311,13 +7362,13 @@
       <c r="A332" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B332" s="8">
-        <v>43596.458333333336</v>
-      </c>
-      <c r="C332" s="8">
-        <v>43597.333333333336</v>
-      </c>
-      <c r="D332" s="7" t="s">
+      <c r="B332" s="23">
+        <v>43601.333333333336</v>
+      </c>
+      <c r="C332" s="23">
+        <v>43601.680555555555</v>
+      </c>
+      <c r="D332" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7326,10 +7377,10 @@
         <v>36</v>
       </c>
       <c r="B333" s="23">
-        <v>43601.333333333336</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C333" s="23">
-        <v>43601.680555555555</v>
+        <v>43605.71875</v>
       </c>
       <c r="D333" s="24" t="s">
         <v>47</v>
@@ -7341,10 +7392,10 @@
         <v>36</v>
       </c>
       <c r="B334" s="23">
-        <v>43604.423611111109</v>
+        <v>43606.958333333336</v>
       </c>
       <c r="C334" s="23">
-        <v>43605.71875</v>
+        <v>43608.552083333336</v>
       </c>
       <c r="D334" s="24" t="s">
         <v>47</v>
@@ -7355,68 +7406,68 @@
         <v>36</v>
       </c>
       <c r="B335" s="23">
-        <v>43606.958333333336</v>
+        <v>43611.395833333336</v>
       </c>
       <c r="C335" s="23">
-        <v>43608.552083333336</v>
+        <v>43612.309027777781</v>
       </c>
       <c r="D335" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="336" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="3" t="s">
-        <v>36</v>
+      <c r="A336" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="B336" s="23">
-        <v>43611.395833333336</v>
+        <v>43591.395833333336</v>
       </c>
       <c r="C336" s="23">
-        <v>43612.309027777781</v>
+        <v>43591.520833333336</v>
       </c>
       <c r="D336" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="337" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="29" t="s">
+      <c r="A337" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B337" s="23">
-        <v>43591.395833333336</v>
-      </c>
-      <c r="C337" s="23">
-        <v>43591.520833333336</v>
-      </c>
-      <c r="D337" s="24" t="s">
+      <c r="B337" s="8">
+        <v>43591.5</v>
+      </c>
+      <c r="C337" s="8">
+        <v>43592.041666666664</v>
+      </c>
+      <c r="D337" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="338" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B338" s="8">
-        <v>43591.5</v>
-      </c>
-      <c r="C338" s="8">
-        <v>43592.041666666664</v>
-      </c>
-      <c r="D338" s="7" t="s">
+      <c r="B338" s="27">
+        <v>43592.159722222219</v>
+      </c>
+      <c r="C338" s="23">
+        <v>43592.427083333336</v>
+      </c>
+      <c r="D338" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="339" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="29" t="s">
+      <c r="A339" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B339" s="27">
-        <v>43592.159722222219</v>
-      </c>
-      <c r="C339" s="23">
+      <c r="B339" s="8">
         <v>43592.427083333336</v>
       </c>
-      <c r="D339" s="24" t="s">
+      <c r="C339" s="8">
+        <v>43593.125</v>
+      </c>
+      <c r="D339" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7425,10 +7476,10 @@
         <v>37</v>
       </c>
       <c r="B340" s="8">
-        <v>43592.427083333336</v>
+        <v>43594.114583333336</v>
       </c>
       <c r="C340" s="8">
-        <v>43593.125</v>
+        <v>43594.541666666664</v>
       </c>
       <c r="D340" s="7" t="s">
         <v>47</v>
@@ -7439,54 +7490,54 @@
         <v>37</v>
       </c>
       <c r="B341" s="8">
-        <v>43594.114583333336</v>
+        <v>43595.083333333336</v>
       </c>
       <c r="C341" s="8">
-        <v>43594.541666666664</v>
+        <v>43595.3125</v>
       </c>
       <c r="D341" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="342" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="3" t="s">
+      <c r="A342" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B342" s="8">
-        <v>43595.083333333336</v>
-      </c>
-      <c r="C342" s="8">
-        <v>43595.3125</v>
-      </c>
-      <c r="D342" s="7" t="s">
+      <c r="B342" s="23">
+        <v>43596.322916666664</v>
+      </c>
+      <c r="C342" s="23">
+        <v>43596.84375</v>
+      </c>
+      <c r="D342" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="343" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="29" t="s">
+      <c r="A343" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B343" s="23">
-        <v>43596.322916666664</v>
-      </c>
-      <c r="C343" s="23">
-        <v>43596.84375</v>
-      </c>
-      <c r="D343" s="24" t="s">
+      <c r="B343" s="8">
+        <v>43596.5</v>
+      </c>
+      <c r="C343" s="8">
+        <v>43597.416666666664</v>
+      </c>
+      <c r="D343" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="344" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
-      <c r="A344" s="3" t="s">
+      <c r="A344" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B344" s="8">
-        <v>43596.5</v>
-      </c>
-      <c r="C344" s="8">
-        <v>43597.416666666664</v>
-      </c>
-      <c r="D344" s="7" t="s">
+      <c r="B344" s="23">
+        <v>43601.333333333336</v>
+      </c>
+      <c r="C344" s="23">
+        <v>43601.680555555555</v>
+      </c>
+      <c r="D344" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E344" s="7"/>
@@ -7496,10 +7547,10 @@
         <v>37</v>
       </c>
       <c r="B345" s="23">
-        <v>43601.333333333336</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C345" s="23">
-        <v>43601.680555555555</v>
+        <v>43605.71875</v>
       </c>
       <c r="D345" s="24" t="s">
         <v>47</v>
@@ -7510,10 +7561,10 @@
         <v>37</v>
       </c>
       <c r="B346" s="23">
-        <v>43604.423611111109</v>
+        <v>43606.958333333336</v>
       </c>
       <c r="C346" s="23">
-        <v>43605.71875</v>
+        <v>43608.552083333336</v>
       </c>
       <c r="D346" s="24" t="s">
         <v>47</v>
@@ -7524,10 +7575,10 @@
         <v>37</v>
       </c>
       <c r="B347" s="23">
-        <v>43606.958333333336</v>
+        <v>43611.395833333336</v>
       </c>
       <c r="C347" s="23">
-        <v>43608.552083333336</v>
+        <v>43612.309027777781</v>
       </c>
       <c r="D347" s="24" t="s">
         <v>47</v>
@@ -19818,16 +19869,16 @@
       <c r="XFC347" s="8"/>
     </row>
     <row r="348" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="29" t="s">
+      <c r="A348" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B348" s="23">
-        <v>43611.395833333336</v>
-      </c>
-      <c r="C348" s="23">
-        <v>43612.309027777781</v>
-      </c>
-      <c r="D348" s="24" t="s">
+      <c r="B348" s="8">
+        <v>43633.25</v>
+      </c>
+      <c r="C348" s="8">
+        <v>43633.833333333336</v>
+      </c>
+      <c r="D348" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -19836,77 +19887,78 @@
         <v>37</v>
       </c>
       <c r="B349" s="8">
-        <v>43633.25</v>
+        <v>43645</v>
       </c>
       <c r="C349" s="8">
-        <v>43633.833333333336</v>
+        <v>43645.1875</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>47</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E349"/>
     </row>
     <row r="350" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B350" s="8">
-        <v>43645</v>
+        <v>43646.020833333336</v>
       </c>
       <c r="C350" s="8">
-        <v>43645.1875</v>
+        <v>43646.1875</v>
       </c>
       <c r="D350" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="351" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
-      <c r="A351" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B351" s="8">
-        <v>43646.020833333336</v>
-      </c>
-      <c r="C351" s="8">
-        <v>43646.1875</v>
-      </c>
-      <c r="D351" s="7" t="s">
-        <v>85</v>
+      <c r="A351" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B351" s="23">
+        <v>43593.854166666664</v>
+      </c>
+      <c r="C351" s="23">
+        <v>43593.989583333336</v>
+      </c>
+      <c r="D351" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="352" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
-      <c r="A352" s="29" t="s">
+      <c r="A352" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B352" s="23">
-        <v>43593.854166666664</v>
-      </c>
-      <c r="C352" s="23">
-        <v>43593.989583333336</v>
-      </c>
-      <c r="D352" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="3" t="s">
+      <c r="B352" s="8">
+        <v>43594.114583333336</v>
+      </c>
+      <c r="C352" s="8">
+        <v>43594.291666666664</v>
+      </c>
+      <c r="D352" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B353" s="8">
-        <v>43594.114583333336</v>
+      <c r="B353" s="23">
+        <v>43596.329861111109</v>
       </c>
       <c r="C353" s="8">
-        <v>43594.291666666664</v>
+        <v>43597.083333333336</v>
       </c>
       <c r="D353" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="29" t="s">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B354" s="23">
-        <v>43596.329861111109</v>
+      <c r="B354" s="8">
+        <v>43596.541666666664</v>
       </c>
       <c r="C354" s="8">
         <v>43597.083333333336</v>
@@ -19915,200 +19967,201 @@
         <v>47</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="3" t="s">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B355" s="8">
-        <v>43596.541666666664</v>
-      </c>
-      <c r="C355" s="8">
-        <v>43597.083333333336</v>
-      </c>
-      <c r="D355" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B355" s="23">
+        <v>43601.413194444445</v>
+      </c>
+      <c r="C355" s="23">
+        <v>43601.708333333336</v>
+      </c>
+      <c r="D355" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B356" s="23">
-        <v>43601.413194444445</v>
+        <v>43604.434027777781</v>
       </c>
       <c r="C356" s="23">
-        <v>43601.708333333336</v>
+        <v>43605.729166666664</v>
       </c>
       <c r="D356" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B357" s="23">
-        <v>43604.434027777781</v>
+        <v>43607.659722222219</v>
       </c>
       <c r="C357" s="23">
-        <v>43605.729166666664</v>
+        <v>43608.201388888891</v>
       </c>
       <c r="D357" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B358" s="23">
-        <v>43607.659722222219</v>
+        <v>43611.395833333336</v>
       </c>
       <c r="C358" s="23">
-        <v>43608.201388888891</v>
+        <v>43612.465277777781</v>
       </c>
       <c r="D358" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" s="29" t="s">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B359" s="23">
-        <v>43611.395833333336</v>
-      </c>
-      <c r="C359" s="23">
-        <v>43612.465277777781</v>
-      </c>
-      <c r="D359" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B359" s="8">
+        <v>43633.333333333336</v>
+      </c>
+      <c r="C359" s="8">
+        <v>43633.833333333336</v>
+      </c>
+      <c r="D359" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B360" s="8">
-        <v>43633.333333333336</v>
+        <v>43641.416666666664</v>
       </c>
       <c r="C360" s="8">
-        <v>43633.833333333336</v>
+        <v>43641.427083333336</v>
       </c>
       <c r="D360" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E360" s="7"/>
+    </row>
+    <row r="361" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B361" s="8">
-        <v>43641.416666666664</v>
+        <v>43645</v>
       </c>
       <c r="C361" s="8">
-        <v>43641.427083333336</v>
+        <v>43645.1875</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B362" s="8">
-        <v>43645</v>
+        <v>43645.229166666664</v>
       </c>
       <c r="C362" s="8">
-        <v>43645.1875</v>
+        <v>43645.395833333336</v>
       </c>
       <c r="D362" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B363" s="8">
-        <v>43645.229166666664</v>
+        <v>43591.583333333336</v>
       </c>
       <c r="C363" s="8">
-        <v>43645.395833333336</v>
+        <v>43592.041666666664</v>
       </c>
       <c r="D363" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B364" s="8">
-        <v>43591.583333333336</v>
+        <v>43592.427083333336</v>
       </c>
       <c r="C364" s="8">
-        <v>43592.041666666664</v>
+        <v>43593.125</v>
       </c>
       <c r="D364" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B365" s="8">
-        <v>43592.427083333336</v>
+        <v>43593.958333333336</v>
       </c>
       <c r="C365" s="8">
-        <v>43593.125</v>
+        <v>43594.375</v>
       </c>
       <c r="D365" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B366" s="8">
-        <v>43593.958333333336</v>
+        <v>43594.833333333336</v>
       </c>
       <c r="C366" s="8">
-        <v>43594.375</v>
+        <v>43595.3125</v>
       </c>
       <c r="D366" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B367" s="8">
-        <v>43594.833333333336</v>
+        <v>43596.541666666664</v>
       </c>
       <c r="C367" s="8">
-        <v>43595.3125</v>
+        <v>43597.291666666664</v>
       </c>
       <c r="D367" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B368" s="8">
-        <v>43596.541666666664</v>
+        <v>43586</v>
       </c>
       <c r="C368" s="8">
-        <v>43597.291666666664</v>
+        <v>43586.847222222219</v>
       </c>
       <c r="D368" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="369" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20116,24 +20169,25 @@
         <v>44</v>
       </c>
       <c r="B369" s="8">
-        <v>43586</v>
+        <v>43591.375</v>
       </c>
       <c r="C369" s="8">
-        <v>43586.847222222219</v>
+        <v>43591.458333333336</v>
       </c>
       <c r="D369" s="7" t="s">
-        <v>64</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E369"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B370" s="8">
-        <v>43591.375</v>
+        <v>43596.291666666664</v>
       </c>
       <c r="C370" s="8">
-        <v>43591.458333333336</v>
+        <v>43596.458333333336</v>
       </c>
       <c r="D370" s="7" t="s">
         <v>47</v>
@@ -20144,13 +20198,16 @@
         <v>44</v>
       </c>
       <c r="B371" s="8">
-        <v>43596.291666666664</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C371" s="8">
-        <v>43596.458333333336</v>
+        <v>43601.583333333336</v>
       </c>
       <c r="D371" s="7" t="s">
         <v>47</v>
+      </c>
+      <c r="E371" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="372" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20158,16 +20215,13 @@
         <v>44</v>
       </c>
       <c r="B372" s="8">
-        <v>43601.333333333336</v>
+        <v>43604.291666666664</v>
       </c>
       <c r="C372" s="8">
-        <v>43601.583333333336</v>
+        <v>43605.583333333336</v>
       </c>
       <c r="D372" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="E372" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="373" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20175,10 +20229,10 @@
         <v>44</v>
       </c>
       <c r="B373" s="8">
-        <v>43604.291666666664</v>
+        <v>43607.25</v>
       </c>
       <c r="C373" s="8">
-        <v>43605.583333333336</v>
+        <v>43607.541666666664</v>
       </c>
       <c r="D373" s="7" t="s">
         <v>47</v>
@@ -20189,10 +20243,10 @@
         <v>44</v>
       </c>
       <c r="B374" s="8">
-        <v>43607.25</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C374" s="8">
-        <v>43607.541666666664</v>
+        <v>43613</v>
       </c>
       <c r="D374" s="7" t="s">
         <v>47</v>
@@ -20200,16 +20254,19 @@
     </row>
     <row r="375" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B375" s="8">
-        <v>43611.291666666664</v>
+        <v>43586</v>
       </c>
       <c r="C375" s="8">
-        <v>43613</v>
+        <v>43586.572916666664</v>
       </c>
       <c r="D375" s="7" t="s">
-        <v>47</v>
+        <v>67</v>
+      </c>
+      <c r="E375" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="376" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20220,7 +20277,7 @@
         <v>43586</v>
       </c>
       <c r="C376" s="8">
-        <v>43586.572916666664</v>
+        <v>43586.854166666664</v>
       </c>
       <c r="D376" s="7" t="s">
         <v>67</v>
@@ -20234,16 +20291,13 @@
         <v>45</v>
       </c>
       <c r="B377" s="8">
-        <v>43586</v>
+        <v>43591.375</v>
       </c>
       <c r="C377" s="8">
-        <v>43586.854166666664</v>
+        <v>43591.458333333336</v>
       </c>
       <c r="D377" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E377" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="378" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20251,13 +20305,13 @@
         <v>45</v>
       </c>
       <c r="B378" s="8">
-        <v>43591.375</v>
+        <v>43594.875</v>
       </c>
       <c r="C378" s="8">
-        <v>43591.458333333336</v>
+        <v>43595.708333333336</v>
       </c>
       <c r="D378" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="379" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20265,13 +20319,13 @@
         <v>45</v>
       </c>
       <c r="B379" s="8">
-        <v>43594.875</v>
+        <v>43596.291666666664</v>
       </c>
       <c r="C379" s="8">
-        <v>43595.708333333336</v>
+        <v>43596.458333333336</v>
       </c>
       <c r="D379" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="380" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20279,13 +20333,13 @@
         <v>45</v>
       </c>
       <c r="B380" s="8">
-        <v>43596.291666666664</v>
+        <v>43598</v>
       </c>
       <c r="C380" s="8">
-        <v>43596.458333333336</v>
+        <v>43598.697916666664</v>
       </c>
       <c r="D380" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="381" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20293,10 +20347,10 @@
         <v>45</v>
       </c>
       <c r="B381" s="8">
-        <v>43598</v>
+        <v>43599.479166666664</v>
       </c>
       <c r="C381" s="8">
-        <v>43598.697916666664</v>
+        <v>43600.114583333336</v>
       </c>
       <c r="D381" s="7" t="s">
         <v>57</v>
@@ -20307,13 +20361,13 @@
         <v>45</v>
       </c>
       <c r="B382" s="8">
-        <v>43599.479166666664</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C382" s="8">
-        <v>43600.114583333336</v>
+        <v>43601.583333333336</v>
       </c>
       <c r="D382" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="383" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20321,10 +20375,10 @@
         <v>45</v>
       </c>
       <c r="B383" s="8">
-        <v>43601.333333333336</v>
+        <v>43604.291666666664</v>
       </c>
       <c r="C383" s="8">
-        <v>43601.583333333336</v>
+        <v>43605.583333333336</v>
       </c>
       <c r="D383" s="7" t="s">
         <v>47</v>
@@ -20335,24 +20389,25 @@
         <v>45</v>
       </c>
       <c r="B384" s="8">
-        <v>43604.291666666664</v>
+        <v>43607.25</v>
       </c>
       <c r="C384" s="8">
-        <v>43605.583333333336</v>
+        <v>43607.541666666664</v>
       </c>
       <c r="D384" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="E384"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B385" s="8">
-        <v>43607.25</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C385" s="8">
-        <v>43607.541666666664</v>
+        <v>43613</v>
       </c>
       <c r="D385" s="7" t="s">
         <v>47</v>
@@ -20363,27 +20418,27 @@
         <v>45</v>
       </c>
       <c r="B386" s="8">
-        <v>43611.291666666664</v>
+        <v>43661.5625</v>
       </c>
       <c r="C386" s="8">
-        <v>43613</v>
+        <v>43661.604166666664</v>
       </c>
       <c r="D386" s="7" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B387" s="8">
-        <v>43661.5625</v>
+        <v>43619</v>
       </c>
       <c r="C387" s="8">
-        <v>43661.604166666664</v>
+        <v>43619.125</v>
       </c>
       <c r="D387" s="7" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -20391,27 +20446,28 @@
         <v>46</v>
       </c>
       <c r="B388" s="8">
-        <v>43619</v>
+        <v>43633.083333333336</v>
       </c>
       <c r="C388" s="8">
-        <v>43619.125</v>
+        <v>43633.458333333336</v>
       </c>
       <c r="D388" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="E388" s="7"/>
     </row>
     <row r="389" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B389" s="8">
-        <v>43633.083333333336</v>
+        <v>43637</v>
       </c>
       <c r="C389" s="8">
-        <v>43633.458333333336</v>
+        <v>43641.541666666664</v>
       </c>
       <c r="D389" s="7" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="390" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20419,10 +20475,10 @@
         <v>46</v>
       </c>
       <c r="B390" s="8">
-        <v>43637</v>
+        <v>43643.291666666664</v>
       </c>
       <c r="C390" s="8">
-        <v>43641.541666666664</v>
+        <v>43643.666666666664</v>
       </c>
       <c r="D390" s="7" t="s">
         <v>85</v>
@@ -20433,24 +20489,25 @@
         <v>46</v>
       </c>
       <c r="B391" s="8">
-        <v>43643.291666666664</v>
+        <v>43644.229166666664</v>
       </c>
       <c r="C391" s="8">
-        <v>43643.666666666664</v>
+        <v>43644.583333333336</v>
       </c>
       <c r="D391" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="E391"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B392" s="8">
-        <v>43644.229166666664</v>
+        <v>43645.21875</v>
       </c>
       <c r="C392" s="8">
-        <v>43644.583333333336</v>
+        <v>43645.5625</v>
       </c>
       <c r="D392" s="7" t="s">
         <v>85</v>
@@ -20460,26 +20517,26 @@
       <c r="A393" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B393" s="8">
-        <v>43645.21875</v>
-      </c>
-      <c r="C393" s="8">
-        <v>43645.5625</v>
-      </c>
-      <c r="D393" s="7" t="s">
-        <v>85</v>
+      <c r="B393" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D393" s="7"/>
+      <c r="E393" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B394" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D394" s="7"/>
-      <c r="E394" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="B394" s="8">
+        <v>43591.375</v>
+      </c>
+      <c r="C394" s="8">
+        <v>43592.458333333336</v>
+      </c>
+      <c r="D394" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -20487,13 +20544,13 @@
         <v>18</v>
       </c>
       <c r="B395" s="8">
-        <v>43591.375</v>
+        <v>43592.125</v>
       </c>
       <c r="C395" s="8">
-        <v>43592.458333333336</v>
+        <v>43594.416666666664</v>
       </c>
       <c r="D395" s="7" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -20501,13 +20558,13 @@
         <v>18</v>
       </c>
       <c r="B396" s="8">
-        <v>43592.125</v>
+        <v>43595.291666666664</v>
       </c>
       <c r="C396" s="8">
-        <v>43594.416666666664</v>
+        <v>43595.416666666664</v>
       </c>
       <c r="D396" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -20515,10 +20572,10 @@
         <v>18</v>
       </c>
       <c r="B397" s="8">
-        <v>43595.291666666664</v>
+        <v>43596.319444444445</v>
       </c>
       <c r="C397" s="8">
-        <v>43595.416666666664</v>
+        <v>43596.947916666664</v>
       </c>
       <c r="D397" s="7" t="s">
         <v>47</v>
@@ -20529,29 +20586,29 @@
         <v>18</v>
       </c>
       <c r="B398" s="8">
-        <v>43596.319444444445</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C398" s="8">
-        <v>43596.947916666664</v>
+        <v>43601.854166666664</v>
       </c>
       <c r="D398" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="E398" s="3"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B399" s="8">
-        <v>43601.333333333336</v>
+        <v>43604.083333333336</v>
       </c>
       <c r="C399" s="8">
-        <v>43601.854166666664</v>
+        <v>43605.1875</v>
       </c>
       <c r="D399" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E399" s="3"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
@@ -20561,21 +20618,22 @@
         <v>43604.083333333336</v>
       </c>
       <c r="C400" s="8">
-        <v>43605.1875</v>
+        <v>43633.6875</v>
       </c>
       <c r="D400" s="7" t="s">
-        <v>47</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E400" s="7"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B401" s="8">
-        <v>43604.083333333336</v>
+        <v>43605.190972222219</v>
       </c>
       <c r="C401" s="8">
-        <v>43633.6875</v>
+        <v>43616.999305555553</v>
       </c>
       <c r="D401" s="7" t="s">
         <v>63</v>
@@ -20587,13 +20645,13 @@
         <v>18</v>
       </c>
       <c r="B402" s="8">
-        <v>43605.190972222219</v>
+        <v>43633.663194444445</v>
       </c>
       <c r="C402" s="8">
-        <v>43616.999305555553</v>
+        <v>43633.680555555555</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E402" s="7"/>
     </row>
@@ -20602,13 +20660,13 @@
         <v>18</v>
       </c>
       <c r="B403" s="8">
-        <v>43633.663194444445</v>
+        <v>43637.270833333336</v>
       </c>
       <c r="C403" s="8">
-        <v>43633.680555555555</v>
+        <v>43605.3125</v>
       </c>
       <c r="D403" s="7" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E403" s="7"/>
     </row>
@@ -20617,13 +20675,13 @@
         <v>18</v>
       </c>
       <c r="B404" s="8">
-        <v>43637.270833333336</v>
+        <v>43647.996527777781</v>
       </c>
       <c r="C404" s="8">
-        <v>43605.3125</v>
+        <v>43648.013888888891</v>
       </c>
       <c r="D404" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E404" s="7"/>
     </row>
@@ -20632,10 +20690,10 @@
         <v>18</v>
       </c>
       <c r="B405" s="8">
-        <v>43647.996527777781</v>
+        <v>43657.378472222219</v>
       </c>
       <c r="C405" s="8">
-        <v>43648.013888888891</v>
+        <v>43657.697916666664</v>
       </c>
       <c r="D405" s="7" t="s">
         <v>75</v>
@@ -20647,10 +20705,10 @@
         <v>18</v>
       </c>
       <c r="B406" s="8">
-        <v>43657.378472222219</v>
+        <v>43659</v>
       </c>
       <c r="C406" s="8">
-        <v>43657.697916666664</v>
+        <v>43659.166666666664</v>
       </c>
       <c r="D406" s="7" t="s">
         <v>75</v>
@@ -20662,10 +20720,10 @@
         <v>18</v>
       </c>
       <c r="B407" s="8">
-        <v>43659</v>
+        <v>43660.010416666664</v>
       </c>
       <c r="C407" s="8">
-        <v>43659.166666666664</v>
+        <v>43660.177083333336</v>
       </c>
       <c r="D407" s="7" t="s">
         <v>75</v>
@@ -20677,10 +20735,10 @@
         <v>18</v>
       </c>
       <c r="B408" s="8">
-        <v>43660.010416666664</v>
+        <v>43660.996527777781</v>
       </c>
       <c r="C408" s="8">
-        <v>43660.177083333336</v>
+        <v>43661.163194444445</v>
       </c>
       <c r="D408" s="7" t="s">
         <v>75</v>
@@ -20692,10 +20750,10 @@
         <v>18</v>
       </c>
       <c r="B409" s="8">
-        <v>43660.996527777781</v>
+        <v>43663.006944444445</v>
       </c>
       <c r="C409" s="8">
-        <v>43661.163194444445</v>
+        <v>43663.173611111109</v>
       </c>
       <c r="D409" s="7" t="s">
         <v>75</v>
@@ -20707,10 +20765,10 @@
         <v>18</v>
       </c>
       <c r="B410" s="8">
-        <v>43663.006944444445</v>
+        <v>43665.996527777781</v>
       </c>
       <c r="C410" s="8">
-        <v>43663.173611111109</v>
+        <v>43666.163194444445</v>
       </c>
       <c r="D410" s="7" t="s">
         <v>75</v>
@@ -20722,10 +20780,10 @@
         <v>18</v>
       </c>
       <c r="B411" s="8">
-        <v>43665.996527777781</v>
+        <v>43666.371527777781</v>
       </c>
       <c r="C411" s="8">
-        <v>43666.163194444445</v>
+        <v>43666.454861111109</v>
       </c>
       <c r="D411" s="7" t="s">
         <v>75</v>
@@ -20733,17 +20791,17 @@
       <c r="E411" s="7"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="3" t="s">
-        <v>18</v>
+      <c r="A412" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B412" s="8">
-        <v>43666.371527777781</v>
+        <v>43575</v>
       </c>
       <c r="C412" s="8">
-        <v>43666.454861111109</v>
+        <v>43593.75</v>
       </c>
       <c r="D412" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E412" s="7"/>
     </row>
@@ -20752,13 +20810,13 @@
         <v>26</v>
       </c>
       <c r="B413" s="8">
-        <v>43575</v>
+        <v>43594.965277777781</v>
       </c>
       <c r="C413" s="8">
-        <v>43593.75</v>
+        <v>43595.375</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="E413" s="7"/>
     </row>
@@ -20767,10 +20825,10 @@
         <v>26</v>
       </c>
       <c r="B414" s="8">
-        <v>43594.965277777781</v>
+        <v>43596.395833333336</v>
       </c>
       <c r="C414" s="8">
-        <v>43595.375</v>
+        <v>43596.517361111109</v>
       </c>
       <c r="D414" s="7" t="s">
         <v>47</v>
@@ -20778,14 +20836,14 @@
       <c r="E414" s="7"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="7" t="s">
+      <c r="A415" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B415" s="8">
-        <v>43596.395833333336</v>
+        <v>43601.420138888891</v>
       </c>
       <c r="C415" s="8">
-        <v>43596.517361111109</v>
+        <v>43601.604166666664</v>
       </c>
       <c r="D415" s="7" t="s">
         <v>47</v>
@@ -20797,10 +20855,10 @@
         <v>26</v>
       </c>
       <c r="B416" s="8">
-        <v>43601.420138888891</v>
+        <v>43604.4375</v>
       </c>
       <c r="C416" s="8">
-        <v>43601.604166666664</v>
+        <v>43604.638888888891</v>
       </c>
       <c r="D416" s="7" t="s">
         <v>47</v>
@@ -20812,10 +20870,10 @@
         <v>26</v>
       </c>
       <c r="B417" s="8">
-        <v>43604.4375</v>
+        <v>43604.875</v>
       </c>
       <c r="C417" s="8">
-        <v>43604.638888888891</v>
+        <v>43605.569444444445</v>
       </c>
       <c r="D417" s="7" t="s">
         <v>47</v>
@@ -20827,10 +20885,10 @@
         <v>26</v>
       </c>
       <c r="B418" s="8">
-        <v>43604.875</v>
+        <v>43607.239583333336</v>
       </c>
       <c r="C418" s="8">
-        <v>43605.569444444445</v>
+        <v>43607.354166666664</v>
       </c>
       <c r="D418" s="7" t="s">
         <v>47</v>
@@ -20841,11 +20899,11 @@
       <c r="A419" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B419" s="8">
-        <v>43607.239583333336</v>
-      </c>
-      <c r="C419" s="8">
-        <v>43607.354166666664</v>
+      <c r="B419" s="16">
+        <v>43611.885416666664</v>
+      </c>
+      <c r="C419" s="16">
+        <v>43612.34375</v>
       </c>
       <c r="D419" s="7" t="s">
         <v>47</v>
@@ -20857,10 +20915,10 @@
         <v>26</v>
       </c>
       <c r="B420" s="16">
-        <v>43611.885416666664</v>
+        <v>43637.208333333336</v>
       </c>
       <c r="C420" s="16">
-        <v>43612.34375</v>
+        <v>43637.416666666664</v>
       </c>
       <c r="D420" s="7" t="s">
         <v>47</v>
@@ -20868,14 +20926,14 @@
       <c r="E420" s="7"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B421" s="16">
-        <v>43637.208333333336</v>
-      </c>
-      <c r="C421" s="16">
-        <v>43637.416666666664</v>
+      <c r="A421" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B421" s="8">
+        <v>43591.333333333336</v>
+      </c>
+      <c r="C421" s="8">
+        <v>43591.479166666664</v>
       </c>
       <c r="D421" s="7" t="s">
         <v>47</v>
@@ -20887,10 +20945,10 @@
         <v>19</v>
       </c>
       <c r="B422" s="8">
-        <v>43591.333333333336</v>
+        <v>43592.173611111109</v>
       </c>
       <c r="C422" s="8">
-        <v>43591.479166666664</v>
+        <v>43592.288194444445</v>
       </c>
       <c r="D422" s="7" t="s">
         <v>47</v>
@@ -20902,10 +20960,10 @@
         <v>19</v>
       </c>
       <c r="B423" s="8">
-        <v>43592.173611111109</v>
+        <v>43595.041666666664</v>
       </c>
       <c r="C423" s="8">
-        <v>43592.288194444445</v>
+        <v>43595.322916666664</v>
       </c>
       <c r="D423" s="7" t="s">
         <v>47</v>
@@ -20917,10 +20975,10 @@
         <v>19</v>
       </c>
       <c r="B424" s="8">
-        <v>43595.041666666664</v>
+        <v>43596.270833333336</v>
       </c>
       <c r="C424" s="8">
-        <v>43595.322916666664</v>
+        <v>43596.534722222219</v>
       </c>
       <c r="D424" s="7" t="s">
         <v>47</v>
@@ -20932,10 +20990,10 @@
         <v>19</v>
       </c>
       <c r="B425" s="8">
-        <v>43596.270833333336</v>
+        <v>43601.40625</v>
       </c>
       <c r="C425" s="8">
-        <v>43596.534722222219</v>
+        <v>43601.565972222219</v>
       </c>
       <c r="D425" s="7" t="s">
         <v>47</v>
@@ -20947,10 +21005,10 @@
         <v>19</v>
       </c>
       <c r="B426" s="8">
-        <v>43601.40625</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C426" s="8">
-        <v>43601.565972222219</v>
+        <v>43605.368055555555</v>
       </c>
       <c r="D426" s="7" t="s">
         <v>47</v>
@@ -20962,10 +21020,10 @@
         <v>19</v>
       </c>
       <c r="B427" s="8">
-        <v>43604.416666666664</v>
+        <v>43606.951388888891</v>
       </c>
       <c r="C427" s="8">
-        <v>43605.368055555555</v>
+        <v>43607.875</v>
       </c>
       <c r="D427" s="7" t="s">
         <v>47</v>
@@ -20977,10 +21035,10 @@
         <v>19</v>
       </c>
       <c r="B428" s="8">
-        <v>43606.951388888891</v>
+        <v>43611.9375</v>
       </c>
       <c r="C428" s="8">
-        <v>43607.875</v>
+        <v>43612.111111111109</v>
       </c>
       <c r="D428" s="7" t="s">
         <v>47</v>
@@ -20992,13 +21050,13 @@
         <v>19</v>
       </c>
       <c r="B429" s="8">
-        <v>43611.9375</v>
+        <v>43618.180555555555</v>
       </c>
       <c r="C429" s="8">
-        <v>43612.111111111109</v>
+        <v>43618.229166666664</v>
       </c>
       <c r="D429" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E429" s="7"/>
     </row>
@@ -21007,10 +21065,10 @@
         <v>19</v>
       </c>
       <c r="B430" s="8">
-        <v>43618.180555555555</v>
+        <v>43652</v>
       </c>
       <c r="C430" s="8">
-        <v>43618.229166666664</v>
+        <v>43652.166666666664</v>
       </c>
       <c r="D430" s="7" t="s">
         <v>75</v>
@@ -21022,10 +21080,10 @@
         <v>19</v>
       </c>
       <c r="B431" s="8">
-        <v>43652</v>
+        <v>43655.163194444445</v>
       </c>
       <c r="C431" s="8">
-        <v>43652.166666666664</v>
+        <v>43655.381944444445</v>
       </c>
       <c r="D431" s="7" t="s">
         <v>75</v>
@@ -21037,10 +21095,10 @@
         <v>19</v>
       </c>
       <c r="B432" s="8">
-        <v>43655.163194444445</v>
+        <v>43656.013888888891</v>
       </c>
       <c r="C432" s="8">
-        <v>43655.381944444445</v>
+        <v>43656.180555555555</v>
       </c>
       <c r="D432" s="7" t="s">
         <v>75</v>
@@ -21052,10 +21110,10 @@
         <v>19</v>
       </c>
       <c r="B433" s="8">
-        <v>43656.013888888891</v>
+        <v>43657.006944444445</v>
       </c>
       <c r="C433" s="8">
-        <v>43656.180555555555</v>
+        <v>43657.173611111109</v>
       </c>
       <c r="D433" s="7" t="s">
         <v>75</v>
@@ -21067,10 +21125,10 @@
         <v>19</v>
       </c>
       <c r="B434" s="8">
-        <v>43657.006944444445</v>
+        <v>43660.006944444445</v>
       </c>
       <c r="C434" s="8">
-        <v>43657.173611111109</v>
+        <v>43660.173611111109</v>
       </c>
       <c r="D434" s="7" t="s">
         <v>75</v>
@@ -21082,10 +21140,10 @@
         <v>19</v>
       </c>
       <c r="B435" s="8">
-        <v>43660.006944444445</v>
+        <v>43663</v>
       </c>
       <c r="C435" s="8">
-        <v>43660.173611111109</v>
+        <v>43663.166666666664</v>
       </c>
       <c r="D435" s="7" t="s">
         <v>75</v>
@@ -21097,10 +21155,10 @@
         <v>19</v>
       </c>
       <c r="B436" s="8">
-        <v>43663</v>
+        <v>43666.013888888891</v>
       </c>
       <c r="C436" s="8">
-        <v>43663.166666666664</v>
+        <v>43666.180555555555</v>
       </c>
       <c r="D436" s="7" t="s">
         <v>75</v>
@@ -21112,10 +21170,10 @@
         <v>19</v>
       </c>
       <c r="B437" s="8">
-        <v>43666.013888888891</v>
+        <v>43668.229166666664</v>
       </c>
       <c r="C437" s="8">
-        <v>43666.180555555555</v>
+        <v>43668.388888888891</v>
       </c>
       <c r="D437" s="7" t="s">
         <v>75</v>
@@ -21124,16 +21182,16 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B438" s="8">
-        <v>43668.229166666664</v>
+        <v>43591.409722222219</v>
       </c>
       <c r="C438" s="8">
-        <v>43668.388888888891</v>
+        <v>43592.583333333336</v>
       </c>
       <c r="D438" s="7" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E438" s="7"/>
     </row>
@@ -21142,10 +21200,10 @@
         <v>20</v>
       </c>
       <c r="B439" s="8">
-        <v>43591.409722222219</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C439" s="8">
-        <v>43592.583333333336</v>
+        <v>43595.4375</v>
       </c>
       <c r="D439" s="7" t="s">
         <v>47</v>
@@ -21157,10 +21215,10 @@
         <v>20</v>
       </c>
       <c r="B440" s="8">
-        <v>43595.194444444445</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C440" s="8">
-        <v>43595.4375</v>
+        <v>43594.875</v>
       </c>
       <c r="D440" s="7" t="s">
         <v>47</v>
@@ -21172,10 +21230,10 @@
         <v>20</v>
       </c>
       <c r="B441" s="8">
-        <v>43595.260416666664</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C441" s="8">
-        <v>43594.875</v>
+        <v>43596.895833333336</v>
       </c>
       <c r="D441" s="7" t="s">
         <v>47</v>
@@ -21187,10 +21245,10 @@
         <v>20</v>
       </c>
       <c r="B442" s="8">
-        <v>43596.340277777781</v>
+        <v>43601.440972222219</v>
       </c>
       <c r="C442" s="8">
-        <v>43596.895833333336</v>
+        <v>43601.822916666664</v>
       </c>
       <c r="D442" s="7" t="s">
         <v>47</v>
@@ -21202,10 +21260,10 @@
         <v>20</v>
       </c>
       <c r="B443" s="8">
-        <v>43601.440972222219</v>
+        <v>43604.440972222219</v>
       </c>
       <c r="C443" s="8">
-        <v>43601.822916666664</v>
+        <v>43608.708333333336</v>
       </c>
       <c r="D443" s="7" t="s">
         <v>47</v>
@@ -21217,10 +21275,10 @@
         <v>20</v>
       </c>
       <c r="B444" s="8">
-        <v>43604.440972222219</v>
+        <v>43610.291666666664</v>
       </c>
       <c r="C444" s="8">
-        <v>43608.708333333336</v>
+        <v>43612.25</v>
       </c>
       <c r="D444" s="7" t="s">
         <v>47</v>
@@ -21232,10 +21290,10 @@
         <v>20</v>
       </c>
       <c r="B445" s="8">
-        <v>43610.291666666664</v>
+        <v>43633.583333333336</v>
       </c>
       <c r="C445" s="8">
-        <v>43612.25</v>
+        <v>43633.833333333336</v>
       </c>
       <c r="D445" s="7" t="s">
         <v>47</v>
@@ -21247,10 +21305,10 @@
         <v>20</v>
       </c>
       <c r="B446" s="8">
-        <v>43633.583333333336</v>
+        <v>43637.104166666664</v>
       </c>
       <c r="C446" s="8">
-        <v>43633.833333333336</v>
+        <v>43637.791666666664</v>
       </c>
       <c r="D446" s="7" t="s">
         <v>47</v>
@@ -21262,14 +21320,12 @@
         <v>20</v>
       </c>
       <c r="B447" s="8">
-        <v>43637.104166666664</v>
+        <v>43646</v>
       </c>
       <c r="C447" s="8">
-        <v>43637.791666666664</v>
-      </c>
-      <c r="D447" s="7" t="s">
-        <v>47</v>
-      </c>
+        <v>43646.017361111109</v>
+      </c>
+      <c r="D447" s="7"/>
       <c r="E447" s="7"/>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -21280,9 +21336,11 @@
         <v>43646</v>
       </c>
       <c r="C448" s="8">
-        <v>43646.017361111109</v>
-      </c>
-      <c r="D448" s="7"/>
+        <v>43646.020833333336</v>
+      </c>
+      <c r="D448" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="E448" s="7"/>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -21290,14 +21348,12 @@
         <v>20</v>
       </c>
       <c r="B449" s="8">
-        <v>43646</v>
+        <v>43647.392361111109</v>
       </c>
       <c r="C449" s="8">
-        <v>43646.020833333336</v>
-      </c>
-      <c r="D449" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>43647.559027777781</v>
+      </c>
+      <c r="D449" s="7"/>
       <c r="E449" s="7"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -21305,10 +21361,10 @@
         <v>20</v>
       </c>
       <c r="B450" s="8">
-        <v>43647.392361111109</v>
+        <v>43649.385416666664</v>
       </c>
       <c r="C450" s="8">
-        <v>43647.559027777781</v>
+        <v>43649.552083333336</v>
       </c>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -21318,10 +21374,10 @@
         <v>20</v>
       </c>
       <c r="B451" s="8">
-        <v>43649.385416666664</v>
+        <v>43655.010416666664</v>
       </c>
       <c r="C451" s="8">
-        <v>43649.552083333336</v>
+        <v>43655.177083333336</v>
       </c>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -21331,10 +21387,10 @@
         <v>20</v>
       </c>
       <c r="B452" s="8">
-        <v>43655.010416666664</v>
+        <v>43665.013888888891</v>
       </c>
       <c r="C452" s="8">
-        <v>43655.177083333336</v>
+        <v>43665.180555555555</v>
       </c>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
@@ -21344,10 +21400,10 @@
         <v>20</v>
       </c>
       <c r="B453" s="8">
-        <v>43665.013888888891</v>
+        <v>43666.013888888891</v>
       </c>
       <c r="C453" s="8">
-        <v>43665.180555555555</v>
+        <v>43666.180555555555</v>
       </c>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -21357,10 +21413,10 @@
         <v>20</v>
       </c>
       <c r="B454" s="8">
-        <v>43666.013888888891</v>
+        <v>43668.010416666664</v>
       </c>
       <c r="C454" s="8">
-        <v>43666.180555555555</v>
+        <v>43668.177083333336</v>
       </c>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
@@ -21370,10 +21426,10 @@
         <v>20</v>
       </c>
       <c r="B455" s="8">
-        <v>43668.010416666664</v>
+        <v>43669</v>
       </c>
       <c r="C455" s="8">
-        <v>43668.177083333336</v>
+        <v>43669.006944444445</v>
       </c>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
@@ -21383,10 +21439,10 @@
         <v>20</v>
       </c>
       <c r="B456" s="8">
-        <v>43669</v>
+        <v>43670</v>
       </c>
       <c r="C456" s="8">
-        <v>43669.006944444445</v>
+        <v>43670.006944444445</v>
       </c>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -21396,25 +21452,27 @@
         <v>20</v>
       </c>
       <c r="B457" s="8">
-        <v>43670</v>
+        <v>43670.545138888891</v>
       </c>
       <c r="C457" s="8">
-        <v>43670.006944444445</v>
+        <v>43670.711805555555</v>
       </c>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B458" s="8">
-        <v>43670.545138888891</v>
+        <v>43591.375</v>
       </c>
       <c r="C458" s="8">
-        <v>43670.711805555555</v>
-      </c>
-      <c r="D458" s="7"/>
+        <v>43591.78125</v>
+      </c>
+      <c r="D458" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="E458" s="7"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -21422,10 +21480,10 @@
         <v>25</v>
       </c>
       <c r="B459" s="8">
-        <v>43591.375</v>
+        <v>43592.166666666664</v>
       </c>
       <c r="C459" s="8">
-        <v>43591.78125</v>
+        <v>43592.579861111109</v>
       </c>
       <c r="D459" s="7" t="s">
         <v>47</v>
@@ -21437,10 +21495,10 @@
         <v>25</v>
       </c>
       <c r="B460" s="8">
-        <v>43592.166666666664</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C460" s="8">
-        <v>43592.579861111109</v>
+        <v>43595.4375</v>
       </c>
       <c r="D460" s="7" t="s">
         <v>47</v>
@@ -21452,10 +21510,10 @@
         <v>25</v>
       </c>
       <c r="B461" s="8">
-        <v>43595.194444444445</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C461" s="8">
-        <v>43595.4375</v>
+        <v>43594.875</v>
       </c>
       <c r="D461" s="7" t="s">
         <v>47</v>
@@ -21467,10 +21525,10 @@
         <v>25</v>
       </c>
       <c r="B462" s="8">
-        <v>43595.260416666664</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C462" s="8">
-        <v>43594.875</v>
+        <v>43596.895833333336</v>
       </c>
       <c r="D462" s="7" t="s">
         <v>47</v>
@@ -21482,10 +21540,10 @@
         <v>25</v>
       </c>
       <c r="B463" s="8">
-        <v>43596.340277777781</v>
+        <v>43601.388888888891</v>
       </c>
       <c r="C463" s="8">
-        <v>43596.895833333336</v>
+        <v>43601.822916666664</v>
       </c>
       <c r="D463" s="7" t="s">
         <v>47</v>
@@ -21497,10 +21555,10 @@
         <v>25</v>
       </c>
       <c r="B464" s="8">
-        <v>43601.388888888891</v>
+        <v>43604.350694444445</v>
       </c>
       <c r="C464" s="8">
-        <v>43601.822916666664</v>
+        <v>43608.708333333336</v>
       </c>
       <c r="D464" s="7" t="s">
         <v>47</v>
@@ -21512,10 +21570,10 @@
         <v>25</v>
       </c>
       <c r="B465" s="8">
-        <v>43604.350694444445</v>
+        <v>43611.892361111109</v>
       </c>
       <c r="C465" s="8">
-        <v>43608.708333333336</v>
+        <v>43612.25</v>
       </c>
       <c r="D465" s="7" t="s">
         <v>47</v>
@@ -21527,13 +21585,13 @@
         <v>25</v>
       </c>
       <c r="B466" s="8">
-        <v>43611.892361111109</v>
+        <v>43616.208333333336</v>
       </c>
       <c r="C466" s="8">
-        <v>43612.25</v>
+        <v>43616.701388888891</v>
       </c>
       <c r="D466" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E466" s="7"/>
     </row>
@@ -21548,7 +21606,7 @@
         <v>43616.701388888891</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E467" s="7"/>
     </row>
@@ -21557,13 +21615,13 @@
         <v>25</v>
       </c>
       <c r="B468" s="8">
-        <v>43616.208333333336</v>
+        <v>43633.583333333336</v>
       </c>
       <c r="C468" s="8">
-        <v>43616.701388888891</v>
+        <v>43633.791666666664</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="E468" s="7"/>
     </row>
@@ -21572,10 +21630,10 @@
         <v>25</v>
       </c>
       <c r="B469" s="8">
-        <v>43633.583333333336</v>
+        <v>43637.104166666664</v>
       </c>
       <c r="C469" s="8">
-        <v>43633.791666666664</v>
+        <v>43637.791666666664</v>
       </c>
       <c r="D469" s="7" t="s">
         <v>47</v>
@@ -21583,24 +21641,13 @@
       <c r="E469" s="7"/>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B470" s="8">
-        <v>43637.104166666664</v>
-      </c>
-      <c r="C470" s="8">
-        <v>43637.791666666664</v>
-      </c>
-      <c r="D470" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="A470" s="3"/>
+      <c r="D470" s="7"/>
       <c r="E470" s="7"/>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="3"/>
-      <c r="D471" s="7"/>
-      <c r="E471" s="7"/>
+      <c r="B471"/>
+      <c r="C471"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B472"/>
@@ -25186,12 +25233,8 @@
       <c r="B1367"/>
       <c r="C1367"/>
     </row>
-    <row r="1368" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1368"/>
-      <c r="C1368"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E471">
+  <autoFilter ref="A1:E470">
     <sortState ref="A2:E473">
       <sortCondition ref="A1:A473"/>
     </sortState>
@@ -25211,11 +25254,11 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25242,43 +25285,51 @@
         <v>4</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" s="11"/>
     </row>
@@ -25287,7 +25338,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C7" s="11"/>
     </row>
@@ -25296,7 +25347,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C8" s="11"/>
     </row>
@@ -25305,7 +25356,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C9" s="11"/>
     </row>
@@ -25323,16 +25374,18 @@
         <v>42</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C12" s="11"/>
     </row>
@@ -25341,34 +25394,40 @@
         <v>8</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C16" s="11"/>
     </row>
@@ -25377,16 +25436,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C18" s="11"/>
     </row>
@@ -25395,34 +25456,40 @@
         <v>41</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C22" s="11"/>
     </row>
@@ -25431,7 +25498,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C23" s="11"/>
     </row>
@@ -25440,7 +25507,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C24" s="11"/>
     </row>
@@ -25449,7 +25516,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C25" s="11"/>
     </row>
@@ -25458,7 +25525,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11"/>
     </row>
@@ -25467,7 +25534,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C27" s="11"/>
     </row>
@@ -25476,70 +25543,84 @@
         <v>34</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11"/>
     </row>
@@ -25548,7 +25629,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C36" s="11"/>
     </row>
@@ -25557,7 +25638,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C37" s="11"/>
     </row>
@@ -25566,7 +25647,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C38" s="11"/>
     </row>
@@ -25575,7 +25656,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C39" s="11"/>
     </row>
@@ -25584,7 +25665,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C40" s="11"/>
     </row>
@@ -25593,9 +25674,11 @@
         <v>25</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:A16">

--- a/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
@@ -18,7 +18,7 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="4" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$E$470</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$E$476</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data Deliverable Notes'!$A$1:$C$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$1:$G$59</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="108">
   <si>
     <t>Site</t>
   </si>
@@ -350,6 +350,18 @@
   <si>
     <t>Battery failure 7/16-7/22, data dropout after 7/30. where's missing data?</t>
   </si>
+  <si>
+    <t>Data dropouts on 7/29 and 7/30 clipped same as previous gaps</t>
+  </si>
+  <si>
+    <t>Data dropouts on 7/24, 7/28, 7/29, and 7/30 clipped same as previous gaps</t>
+  </si>
+  <si>
+    <t>Data dropouts on 7/24 and 7/31 clipped same as previous gaps</t>
+  </si>
+  <si>
+    <t>Numerous data dropouts in July during zero flow. Should these still be clipped?</t>
+  </si>
 </sst>
 </file>
 
@@ -521,7 +533,7 @@
         <xdr:cNvPr id="2" name="EsriDoNotEdit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,11 +2615,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC1367"/>
+  <dimension ref="A1:XFC1375"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
+      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D413" sqref="D413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20790,75 +20802,73 @@
       </c>
       <c r="E411" s="7"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="7" t="s">
-        <v>26</v>
+    <row r="412" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B412" s="8">
-        <v>43575</v>
+        <v>43670.229861111111</v>
       </c>
       <c r="C412" s="8">
-        <v>43593.75</v>
+        <v>43670.461111111108</v>
       </c>
       <c r="D412" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E412" s="7"/>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="7" t="s">
-        <v>26</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B413" s="8">
-        <v>43594.965277777781</v>
+        <v>43677.399305555555</v>
       </c>
       <c r="C413" s="8">
-        <v>43595.375</v>
+        <v>43677.559027777781</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E413" s="7"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B414" s="8">
+        <v>43575</v>
+      </c>
+      <c r="C414" s="8">
+        <v>43593.75</v>
+      </c>
+      <c r="D414" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E414" s="7"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B415" s="8">
+        <v>43594.965277777781</v>
+      </c>
+      <c r="C415" s="8">
+        <v>43595.375</v>
+      </c>
+      <c r="D415" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E415" s="7"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B416" s="8">
         <v>43596.395833333336</v>
       </c>
-      <c r="C414" s="8">
+      <c r="C416" s="8">
         <v>43596.517361111109</v>
-      </c>
-      <c r="D414" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E414" s="7"/>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B415" s="8">
-        <v>43601.420138888891</v>
-      </c>
-      <c r="C415" s="8">
-        <v>43601.604166666664</v>
-      </c>
-      <c r="D415" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E415" s="7"/>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B416" s="8">
-        <v>43604.4375</v>
-      </c>
-      <c r="C416" s="8">
-        <v>43604.638888888891</v>
       </c>
       <c r="D416" s="7" t="s">
         <v>47</v>
@@ -20870,10 +20880,10 @@
         <v>26</v>
       </c>
       <c r="B417" s="8">
-        <v>43604.875</v>
+        <v>43601.420138888891</v>
       </c>
       <c r="C417" s="8">
-        <v>43605.569444444445</v>
+        <v>43601.604166666664</v>
       </c>
       <c r="D417" s="7" t="s">
         <v>47</v>
@@ -20885,10 +20895,10 @@
         <v>26</v>
       </c>
       <c r="B418" s="8">
-        <v>43607.239583333336</v>
+        <v>43604.4375</v>
       </c>
       <c r="C418" s="8">
-        <v>43607.354166666664</v>
+        <v>43604.638888888891</v>
       </c>
       <c r="D418" s="7" t="s">
         <v>47</v>
@@ -20899,11 +20909,11 @@
       <c r="A419" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B419" s="16">
-        <v>43611.885416666664</v>
-      </c>
-      <c r="C419" s="16">
-        <v>43612.34375</v>
+      <c r="B419" s="8">
+        <v>43604.875</v>
+      </c>
+      <c r="C419" s="8">
+        <v>43605.569444444445</v>
       </c>
       <c r="D419" s="7" t="s">
         <v>47</v>
@@ -20914,41 +20924,41 @@
       <c r="A420" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B420" s="16">
+      <c r="B420" s="8">
+        <v>43607.239583333336</v>
+      </c>
+      <c r="C420" s="8">
+        <v>43607.354166666664</v>
+      </c>
+      <c r="D420" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E420" s="7"/>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B421" s="16">
+        <v>43611.885416666664</v>
+      </c>
+      <c r="C421" s="16">
+        <v>43612.34375</v>
+      </c>
+      <c r="D421" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E421" s="7"/>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B422" s="16">
         <v>43637.208333333336</v>
       </c>
-      <c r="C420" s="16">
+      <c r="C422" s="16">
         <v>43637.416666666664</v>
-      </c>
-      <c r="D420" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E420" s="7"/>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B421" s="8">
-        <v>43591.333333333336</v>
-      </c>
-      <c r="C421" s="8">
-        <v>43591.479166666664</v>
-      </c>
-      <c r="D421" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E421" s="7"/>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B422" s="8">
-        <v>43592.173611111109</v>
-      </c>
-      <c r="C422" s="8">
-        <v>43592.288194444445</v>
       </c>
       <c r="D422" s="7" t="s">
         <v>47</v>
@@ -20960,10 +20970,10 @@
         <v>19</v>
       </c>
       <c r="B423" s="8">
-        <v>43595.041666666664</v>
+        <v>43591.333333333336</v>
       </c>
       <c r="C423" s="8">
-        <v>43595.322916666664</v>
+        <v>43591.479166666664</v>
       </c>
       <c r="D423" s="7" t="s">
         <v>47</v>
@@ -20975,10 +20985,10 @@
         <v>19</v>
       </c>
       <c r="B424" s="8">
-        <v>43596.270833333336</v>
+        <v>43592.173611111109</v>
       </c>
       <c r="C424" s="8">
-        <v>43596.534722222219</v>
+        <v>43592.288194444445</v>
       </c>
       <c r="D424" s="7" t="s">
         <v>47</v>
@@ -20990,10 +21000,10 @@
         <v>19</v>
       </c>
       <c r="B425" s="8">
-        <v>43601.40625</v>
+        <v>43595.041666666664</v>
       </c>
       <c r="C425" s="8">
-        <v>43601.565972222219</v>
+        <v>43595.322916666664</v>
       </c>
       <c r="D425" s="7" t="s">
         <v>47</v>
@@ -21005,10 +21015,10 @@
         <v>19</v>
       </c>
       <c r="B426" s="8">
-        <v>43604.416666666664</v>
+        <v>43596.270833333336</v>
       </c>
       <c r="C426" s="8">
-        <v>43605.368055555555</v>
+        <v>43596.534722222219</v>
       </c>
       <c r="D426" s="7" t="s">
         <v>47</v>
@@ -21020,10 +21030,10 @@
         <v>19</v>
       </c>
       <c r="B427" s="8">
-        <v>43606.951388888891</v>
+        <v>43601.40625</v>
       </c>
       <c r="C427" s="8">
-        <v>43607.875</v>
+        <v>43601.565972222219</v>
       </c>
       <c r="D427" s="7" t="s">
         <v>47</v>
@@ -21035,10 +21045,10 @@
         <v>19</v>
       </c>
       <c r="B428" s="8">
-        <v>43611.9375</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C428" s="8">
-        <v>43612.111111111109</v>
+        <v>43605.368055555555</v>
       </c>
       <c r="D428" s="7" t="s">
         <v>47</v>
@@ -21050,13 +21060,13 @@
         <v>19</v>
       </c>
       <c r="B429" s="8">
-        <v>43618.180555555555</v>
+        <v>43606.951388888891</v>
       </c>
       <c r="C429" s="8">
-        <v>43618.229166666664</v>
+        <v>43607.875</v>
       </c>
       <c r="D429" s="7" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E429" s="7"/>
     </row>
@@ -21065,13 +21075,13 @@
         <v>19</v>
       </c>
       <c r="B430" s="8">
-        <v>43652</v>
+        <v>43611.9375</v>
       </c>
       <c r="C430" s="8">
-        <v>43652.166666666664</v>
+        <v>43612.111111111109</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E430" s="7"/>
     </row>
@@ -21080,10 +21090,10 @@
         <v>19</v>
       </c>
       <c r="B431" s="8">
-        <v>43655.163194444445</v>
+        <v>43618.180555555555</v>
       </c>
       <c r="C431" s="8">
-        <v>43655.381944444445</v>
+        <v>43618.229166666664</v>
       </c>
       <c r="D431" s="7" t="s">
         <v>75</v>
@@ -21095,10 +21105,10 @@
         <v>19</v>
       </c>
       <c r="B432" s="8">
-        <v>43656.013888888891</v>
+        <v>43652</v>
       </c>
       <c r="C432" s="8">
-        <v>43656.180555555555</v>
+        <v>43652.166666666664</v>
       </c>
       <c r="D432" s="7" t="s">
         <v>75</v>
@@ -21110,10 +21120,10 @@
         <v>19</v>
       </c>
       <c r="B433" s="8">
-        <v>43657.006944444445</v>
+        <v>43655.163194444445</v>
       </c>
       <c r="C433" s="8">
-        <v>43657.173611111109</v>
+        <v>43655.381944444445</v>
       </c>
       <c r="D433" s="7" t="s">
         <v>75</v>
@@ -21125,10 +21135,10 @@
         <v>19</v>
       </c>
       <c r="B434" s="8">
-        <v>43660.006944444445</v>
+        <v>43656.013888888891</v>
       </c>
       <c r="C434" s="8">
-        <v>43660.173611111109</v>
+        <v>43656.180555555555</v>
       </c>
       <c r="D434" s="7" t="s">
         <v>75</v>
@@ -21140,10 +21150,10 @@
         <v>19</v>
       </c>
       <c r="B435" s="8">
-        <v>43663</v>
+        <v>43657.006944444445</v>
       </c>
       <c r="C435" s="8">
-        <v>43663.166666666664</v>
+        <v>43657.173611111109</v>
       </c>
       <c r="D435" s="7" t="s">
         <v>75</v>
@@ -21155,10 +21165,10 @@
         <v>19</v>
       </c>
       <c r="B436" s="8">
-        <v>43666.013888888891</v>
+        <v>43660.006944444445</v>
       </c>
       <c r="C436" s="8">
-        <v>43666.180555555555</v>
+        <v>43660.173611111109</v>
       </c>
       <c r="D436" s="7" t="s">
         <v>75</v>
@@ -21170,10 +21180,10 @@
         <v>19</v>
       </c>
       <c r="B437" s="8">
-        <v>43668.229166666664</v>
+        <v>43663</v>
       </c>
       <c r="C437" s="8">
-        <v>43668.388888888891</v>
+        <v>43663.166666666664</v>
       </c>
       <c r="D437" s="7" t="s">
         <v>75</v>
@@ -21182,91 +21192,89 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B438" s="8">
-        <v>43591.409722222219</v>
+        <v>43666.013888888891</v>
       </c>
       <c r="C438" s="8">
-        <v>43592.583333333336</v>
+        <v>43666.180555555555</v>
       </c>
       <c r="D438" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E438" s="7"/>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B439" s="8">
-        <v>43595.194444444445</v>
+        <v>43668.229166666664</v>
       </c>
       <c r="C439" s="8">
-        <v>43595.4375</v>
+        <v>43668.388888888891</v>
       </c>
       <c r="D439" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E439" s="7"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B440" s="8">
-        <v>43595.260416666664</v>
+        <v>43670.395833333336</v>
       </c>
       <c r="C440" s="8">
-        <v>43594.875</v>
+        <v>43670.559027777781</v>
       </c>
       <c r="D440" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E440" s="7"/>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B441" s="8">
-        <v>43596.340277777781</v>
+        <v>43674.017361111109</v>
       </c>
       <c r="C441" s="8">
-        <v>43596.895833333336</v>
+        <v>43674.225694444445</v>
       </c>
       <c r="D441" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E441" s="7"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B442" s="8">
-        <v>43601.440972222219</v>
+        <v>43675.011111111111</v>
       </c>
       <c r="C442" s="8">
-        <v>43601.822916666664</v>
+        <v>43676.00277777778</v>
       </c>
       <c r="D442" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E442" s="7"/>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B443" s="8">
-        <v>43604.440972222219</v>
+        <v>43676.011111111111</v>
       </c>
       <c r="C443" s="8">
-        <v>43608.708333333336</v>
+        <v>43676.811805555553</v>
       </c>
       <c r="D443" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E443" s="7"/>
     </row>
@@ -21275,10 +21283,10 @@
         <v>20</v>
       </c>
       <c r="B444" s="8">
-        <v>43610.291666666664</v>
+        <v>43591.409722222219</v>
       </c>
       <c r="C444" s="8">
-        <v>43612.25</v>
+        <v>43592.583333333336</v>
       </c>
       <c r="D444" s="7" t="s">
         <v>47</v>
@@ -21290,10 +21298,10 @@
         <v>20</v>
       </c>
       <c r="B445" s="8">
-        <v>43633.583333333336</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C445" s="8">
-        <v>43633.833333333336</v>
+        <v>43595.4375</v>
       </c>
       <c r="D445" s="7" t="s">
         <v>47</v>
@@ -21305,10 +21313,10 @@
         <v>20</v>
       </c>
       <c r="B446" s="8">
-        <v>43637.104166666664</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C446" s="8">
-        <v>43637.791666666664</v>
+        <v>43594.875</v>
       </c>
       <c r="D446" s="7" t="s">
         <v>47</v>
@@ -21320,12 +21328,14 @@
         <v>20</v>
       </c>
       <c r="B447" s="8">
-        <v>43646</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C447" s="8">
-        <v>43646.017361111109</v>
-      </c>
-      <c r="D447" s="7"/>
+        <v>43596.895833333336</v>
+      </c>
+      <c r="D447" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="E447" s="7"/>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -21333,13 +21343,13 @@
         <v>20</v>
       </c>
       <c r="B448" s="8">
-        <v>43646</v>
+        <v>43601.440972222219</v>
       </c>
       <c r="C448" s="8">
-        <v>43646.020833333336</v>
+        <v>43601.822916666664</v>
       </c>
       <c r="D448" s="7" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E448" s="7"/>
     </row>
@@ -21348,12 +21358,14 @@
         <v>20</v>
       </c>
       <c r="B449" s="8">
-        <v>43647.392361111109</v>
+        <v>43604.440972222219</v>
       </c>
       <c r="C449" s="8">
-        <v>43647.559027777781</v>
-      </c>
-      <c r="D449" s="7"/>
+        <v>43608.708333333336</v>
+      </c>
+      <c r="D449" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="E449" s="7"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -21361,12 +21373,14 @@
         <v>20</v>
       </c>
       <c r="B450" s="8">
-        <v>43649.385416666664</v>
+        <v>43610.291666666664</v>
       </c>
       <c r="C450" s="8">
-        <v>43649.552083333336</v>
-      </c>
-      <c r="D450" s="7"/>
+        <v>43612.25</v>
+      </c>
+      <c r="D450" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="E450" s="7"/>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -21374,12 +21388,14 @@
         <v>20</v>
       </c>
       <c r="B451" s="8">
-        <v>43655.010416666664</v>
+        <v>43633.583333333336</v>
       </c>
       <c r="C451" s="8">
-        <v>43655.177083333336</v>
-      </c>
-      <c r="D451" s="7"/>
+        <v>43633.833333333336</v>
+      </c>
+      <c r="D451" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="E451" s="7"/>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -21387,12 +21403,14 @@
         <v>20</v>
       </c>
       <c r="B452" s="8">
-        <v>43665.013888888891</v>
+        <v>43637.104166666664</v>
       </c>
       <c r="C452" s="8">
-        <v>43665.180555555555</v>
-      </c>
-      <c r="D452" s="7"/>
+        <v>43637.791666666664</v>
+      </c>
+      <c r="D452" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="E452" s="7"/>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -21400,10 +21418,10 @@
         <v>20</v>
       </c>
       <c r="B453" s="8">
-        <v>43666.013888888891</v>
+        <v>43646</v>
       </c>
       <c r="C453" s="8">
-        <v>43666.180555555555</v>
+        <v>43646.017361111109</v>
       </c>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -21413,12 +21431,14 @@
         <v>20</v>
       </c>
       <c r="B454" s="8">
-        <v>43668.010416666664</v>
+        <v>43646</v>
       </c>
       <c r="C454" s="8">
-        <v>43668.177083333336</v>
-      </c>
-      <c r="D454" s="7"/>
+        <v>43646.020833333336</v>
+      </c>
+      <c r="D454" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="E454" s="7"/>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -21426,10 +21446,10 @@
         <v>20</v>
       </c>
       <c r="B455" s="8">
-        <v>43669</v>
+        <v>43647.392361111109</v>
       </c>
       <c r="C455" s="8">
-        <v>43669.006944444445</v>
+        <v>43647.559027777781</v>
       </c>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
@@ -21439,10 +21459,10 @@
         <v>20</v>
       </c>
       <c r="B456" s="8">
-        <v>43670</v>
+        <v>43649.385416666664</v>
       </c>
       <c r="C456" s="8">
-        <v>43670.006944444445</v>
+        <v>43649.552083333336</v>
       </c>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -21452,131 +21472,115 @@
         <v>20</v>
       </c>
       <c r="B457" s="8">
-        <v>43670.545138888891</v>
+        <v>43655.010416666664</v>
       </c>
       <c r="C457" s="8">
-        <v>43670.711805555555</v>
+        <v>43655.177083333336</v>
       </c>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B458" s="8">
-        <v>43591.375</v>
+        <v>43665.013888888891</v>
       </c>
       <c r="C458" s="8">
-        <v>43591.78125</v>
-      </c>
-      <c r="D458" s="7" t="s">
-        <v>47</v>
-      </c>
+        <v>43665.180555555555</v>
+      </c>
+      <c r="D458" s="7"/>
       <c r="E458" s="7"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B459" s="8">
-        <v>43592.166666666664</v>
+        <v>43666.013888888891</v>
       </c>
       <c r="C459" s="8">
-        <v>43592.579861111109</v>
-      </c>
-      <c r="D459" s="7" t="s">
-        <v>47</v>
-      </c>
+        <v>43666.180555555555</v>
+      </c>
+      <c r="D459" s="7"/>
       <c r="E459" s="7"/>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B460" s="8">
-        <v>43595.194444444445</v>
+        <v>43668.010416666664</v>
       </c>
       <c r="C460" s="8">
-        <v>43595.4375</v>
-      </c>
-      <c r="D460" s="7" t="s">
-        <v>47</v>
-      </c>
+        <v>43668.177083333336</v>
+      </c>
+      <c r="D460" s="7"/>
       <c r="E460" s="7"/>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B461" s="8">
-        <v>43595.260416666664</v>
+        <v>43669</v>
       </c>
       <c r="C461" s="8">
-        <v>43594.875</v>
-      </c>
-      <c r="D461" s="7" t="s">
-        <v>47</v>
-      </c>
+        <v>43669.006944444445</v>
+      </c>
+      <c r="D461" s="7"/>
       <c r="E461" s="7"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B462" s="8">
-        <v>43596.340277777781</v>
+        <v>43670</v>
       </c>
       <c r="C462" s="8">
-        <v>43596.895833333336</v>
-      </c>
-      <c r="D462" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E462" s="7"/>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43670.006944444445</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B463" s="8">
-        <v>43601.388888888891</v>
+        <v>43670.545138888891</v>
       </c>
       <c r="C463" s="8">
-        <v>43601.822916666664</v>
-      </c>
-      <c r="D463" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E463" s="7"/>
+        <v>43670.711805555555</v>
+      </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B464" s="8">
-        <v>43604.350694444445</v>
+        <v>43675.231944444444</v>
       </c>
       <c r="C464" s="8">
-        <v>43608.708333333336</v>
+        <v>43675.385416666664</v>
       </c>
       <c r="D464" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E464" s="7"/>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B465" s="8">
-        <v>43611.892361111109</v>
+        <v>43676.697916666664</v>
       </c>
       <c r="C465" s="8">
-        <v>43612.25</v>
+        <v>43676.71875</v>
       </c>
       <c r="D465" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E465" s="7"/>
     </row>
@@ -21585,13 +21589,13 @@
         <v>25</v>
       </c>
       <c r="B466" s="8">
-        <v>43616.208333333336</v>
+        <v>43591.375</v>
       </c>
       <c r="C466" s="8">
-        <v>43616.701388888891</v>
+        <v>43591.78125</v>
       </c>
       <c r="D466" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E466" s="7"/>
     </row>
@@ -21600,13 +21604,13 @@
         <v>25</v>
       </c>
       <c r="B467" s="8">
-        <v>43616.208333333336</v>
+        <v>43592.166666666664</v>
       </c>
       <c r="C467" s="8">
-        <v>43616.701388888891</v>
+        <v>43592.579861111109</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="E467" s="7"/>
     </row>
@@ -21615,10 +21619,10 @@
         <v>25</v>
       </c>
       <c r="B468" s="8">
-        <v>43633.583333333336</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C468" s="8">
-        <v>43633.791666666664</v>
+        <v>43595.4375</v>
       </c>
       <c r="D468" s="7" t="s">
         <v>47</v>
@@ -21630,52 +21634,138 @@
         <v>25</v>
       </c>
       <c r="B469" s="8">
+        <v>43595.260416666664</v>
+      </c>
+      <c r="C469" s="8">
+        <v>43594.875</v>
+      </c>
+      <c r="D469" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E469" s="7"/>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B470" s="8">
+        <v>43596.340277777781</v>
+      </c>
+      <c r="C470" s="8">
+        <v>43596.895833333336</v>
+      </c>
+      <c r="D470" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E470" s="7"/>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B471" s="8">
+        <v>43601.388888888891</v>
+      </c>
+      <c r="C471" s="8">
+        <v>43601.822916666664</v>
+      </c>
+      <c r="D471" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E471" s="7"/>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B472" s="8">
+        <v>43604.350694444445</v>
+      </c>
+      <c r="C472" s="8">
+        <v>43608.708333333336</v>
+      </c>
+      <c r="D472" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E472" s="7"/>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B473" s="8">
+        <v>43611.892361111109</v>
+      </c>
+      <c r="C473" s="8">
+        <v>43612.25</v>
+      </c>
+      <c r="D473" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E473" s="7"/>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B474" s="8">
+        <v>43616.208333333336</v>
+      </c>
+      <c r="C474" s="8">
+        <v>43616.701388888891</v>
+      </c>
+      <c r="D474" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E474" s="7"/>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B475" s="8">
+        <v>43616.208333333336</v>
+      </c>
+      <c r="C475" s="8">
+        <v>43616.701388888891</v>
+      </c>
+      <c r="D475" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E475" s="7"/>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B476" s="8">
+        <v>43633.583333333336</v>
+      </c>
+      <c r="C476" s="8">
+        <v>43633.791666666664</v>
+      </c>
+      <c r="D476" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E476" s="7"/>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B477" s="8">
         <v>43637.104166666664</v>
       </c>
-      <c r="C469" s="8">
+      <c r="C477" s="8">
         <v>43637.791666666664</v>
       </c>
-      <c r="D469" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E469" s="7"/>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="3"/>
-      <c r="D470" s="7"/>
-      <c r="E470" s="7"/>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B471"/>
-      <c r="C471"/>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B472"/>
-      <c r="C472"/>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B473"/>
-      <c r="C473"/>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B474"/>
-      <c r="C474"/>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B475"/>
-      <c r="C475"/>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B476"/>
-      <c r="C476"/>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B477"/>
-      <c r="C477"/>
+      <c r="D477" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B478"/>
-      <c r="C478"/>
+      <c r="A478" s="3"/>
+      <c r="D478" s="7"/>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B479"/>
@@ -25233,8 +25323,40 @@
       <c r="B1367"/>
       <c r="C1367"/>
     </row>
+    <row r="1368" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1368"/>
+      <c r="C1368"/>
+    </row>
+    <row r="1369" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1369"/>
+      <c r="C1369"/>
+    </row>
+    <row r="1370" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1370"/>
+      <c r="C1370"/>
+    </row>
+    <row r="1371" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1371"/>
+      <c r="C1371"/>
+    </row>
+    <row r="1372" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1372"/>
+      <c r="C1372"/>
+    </row>
+    <row r="1373" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1373"/>
+      <c r="C1373"/>
+    </row>
+    <row r="1374" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1374"/>
+      <c r="C1374"/>
+    </row>
+    <row r="1375" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1375"/>
+      <c r="C1375"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E470">
+  <autoFilter ref="A1:E476">
     <sortState ref="A2:E473">
       <sortCondition ref="A1:A473"/>
     </sortState>
@@ -25255,13 +25377,13 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="10" customWidth="1"/>
     <col min="2" max="2" width="90.85546875" style="21" customWidth="1"/>
@@ -25269,7 +25391,7 @@
     <col min="4" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -25629,7 +25751,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C36" s="11"/>
     </row>
@@ -25638,9 +25760,11 @@
         <v>18</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
@@ -25649,27 +25773,33 @@
       <c r="B38" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="11"/>
+      <c r="C38" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>25</v>
       </c>

--- a/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
@@ -548,7 +548,7 @@
         <xdr:cNvPr id="2" name="EsriDoNotEdit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25536,7 +25536,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$E$465</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data Deliverable Notes'!$A$1:$C$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$1:$G$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$1:$G$67</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="125">
   <si>
     <t>Site</t>
   </si>
@@ -929,13 +929,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1692,11 +1692,11 @@
       <c r="B49" s="1">
         <v>43619.447916666664</v>
       </c>
-      <c r="C49" s="1">
-        <v>43647.489583333336</v>
+      <c r="C49" s="8">
+        <v>43633.09375</v>
       </c>
       <c r="D49" s="7">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="E49" s="14">
         <v>0.5</v>
@@ -1710,10 +1710,10 @@
         <v>45</v>
       </c>
       <c r="B50" s="8">
-        <v>43647.489583333336</v>
-      </c>
-      <c r="C50" s="8">
-        <v>43677.996527777781</v>
+        <v>43633.097222222219</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43647.486111111109</v>
       </c>
       <c r="D50" s="7">
         <v>1.8</v>
@@ -1726,16 +1726,44 @@
       </c>
     </row>
     <row r="51" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="5"/>
+      <c r="A51" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="8">
+        <v>43647.489583333336</v>
+      </c>
+      <c r="C51" s="8">
+        <v>43661.625</v>
+      </c>
+      <c r="D51" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="5"/>
+      <c r="A52" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="8">
+        <v>43661.628472222219</v>
+      </c>
+      <c r="C52" s="8">
+        <v>43677.996527777781</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
@@ -1755,56 +1783,44 @@
       <c r="E55" s="14"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>46</v>
-      </c>
+    <row r="56" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="7">
-        <v>0</v>
-      </c>
-      <c r="E56" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F56" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="8">
-        <v>43592.649305555598</v>
-      </c>
-      <c r="C57" s="8">
-        <v>43594.708333333299</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="7">
         <v>0</v>
       </c>
       <c r="E57" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F57" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="8">
+        <v>43592.649305555598</v>
+      </c>
+      <c r="C58" s="8">
+        <v>43594.708333333299</v>
+      </c>
+      <c r="D58" s="7">
         <v>0</v>
       </c>
-      <c r="F57" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="1">
-        <v>43586</v>
-      </c>
-      <c r="C58" s="1">
-        <v>43592.770833333299</v>
-      </c>
-      <c r="D58">
-        <v>4.25</v>
-      </c>
-      <c r="E58" s="22"/>
+      <c r="E58" s="14">
+        <v>0</v>
+      </c>
       <c r="F58" s="26" t="b">
         <v>1</v>
       </c>
@@ -1814,13 +1830,13 @@
         <v>26</v>
       </c>
       <c r="B59" s="1">
+        <v>43586</v>
+      </c>
+      <c r="C59" s="1">
         <v>43592.770833333299</v>
       </c>
-      <c r="C59" s="1">
-        <v>43593.708333333336</v>
-      </c>
       <c r="D59">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="26" t="b">
@@ -1831,9 +1847,16 @@
       <c r="A60" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="22">
-        <v>0.25</v>
-      </c>
+      <c r="B60" s="1">
+        <v>43592.770833333299</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43593.708333333336</v>
+      </c>
+      <c r="D60">
+        <v>3.5</v>
+      </c>
+      <c r="E60" s="22"/>
       <c r="F60" s="26" t="b">
         <v>1</v>
       </c>
@@ -1842,24 +1865,27 @@
       <c r="A61" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="22">
         <v>0.25</v>
       </c>
-      <c r="F61" s="5" t="b">
+      <c r="F61" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="26" t="b">
+        <v>26</v>
+      </c>
+      <c r="E62" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="F62" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F63" s="26" t="b">
         <v>1</v>
@@ -1867,7 +1893,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F64" s="26" t="b">
         <v>1</v>
@@ -1877,33 +1903,35 @@
       <c r="A65" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>81</v>
+      <c r="F65" s="26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B67" s="8">
         <v>43647.659722222219</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C67" s="8">
         <v>43739</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>-0.15</v>
       </c>
-      <c r="E66"/>
-      <c r="F66" s="26" t="b">
+      <c r="E67"/>
+      <c r="F67" s="26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="E67"/>
-      <c r="F67"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B68"/>
@@ -2715,8 +2743,14 @@
       <c r="E202"/>
       <c r="F202"/>
     </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B203"/>
+      <c r="C203"/>
+      <c r="E203"/>
+      <c r="F203"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G66">
+  <autoFilter ref="A1:G67">
     <sortState ref="A2:G58">
       <sortCondition ref="A2:A58"/>
       <sortCondition ref="B2:B58"/>

--- a/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9336" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Offsets" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="4" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$E$465</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$E$472</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data Deliverable Notes'!$A$1:$C$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$1:$G$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$1:$G$70</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="127">
   <si>
     <t>Site</t>
   </si>
@@ -355,9 +355,6 @@
     <t xml:space="preserve">Clear weekday flows pattern, then no flow on weekends. </t>
   </si>
   <si>
-    <t>level spike on 7/15 same day as manual download</t>
-  </si>
-  <si>
     <t>data drop out 7/2, 7/11, 7/13, 7/14, 7/15, 7/17, 7/20</t>
   </si>
   <si>
@@ -407,6 +404,15 @@
   </si>
   <si>
     <t xml:space="preserve">some drop offs in </t>
+  </si>
+  <si>
+    <t>Bad data-doesn't match with game cam</t>
+  </si>
+  <si>
+    <t>May have been sediment issue</t>
+  </si>
+  <si>
+    <t>level spike on 7/15 same day as manual download. Looks like pattern of higher water temp with the pumping pattern. One period of data (7/9-7/15) was clipped out since it didn't match up with the game cam observations</t>
   </si>
 </sst>
 </file>
@@ -586,7 +592,7 @@
         <xdr:cNvPr id="2" name="EsriDoNotEdit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,13 +935,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1678,12 +1684,8 @@
       <c r="D48" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E48" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F48" s="26" t="b">
-        <v>1</v>
-      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="26"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
@@ -1698,12 +1700,6 @@
       <c r="D49" s="7">
         <v>1.7</v>
       </c>
-      <c r="E49" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="F49" s="5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="50" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
@@ -1712,76 +1708,98 @@
       <c r="B50" s="8">
         <v>43633.097222222219</v>
       </c>
-      <c r="C50" s="1">
-        <v>43647.486111111109</v>
+      <c r="C50" s="8">
+        <v>43641.538194444445</v>
       </c>
       <c r="D50" s="7">
         <v>1.8</v>
       </c>
-      <c r="E50" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="F50" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="8">
-        <v>43647.489583333336</v>
+        <v>43641.541666666664</v>
       </c>
       <c r="C51" s="8">
-        <v>43661.625</v>
+        <v>43642.052083333336</v>
       </c>
       <c r="D51" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="E51" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="F51" s="5" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="8">
-        <v>43661.628472222219</v>
+        <v>43642.055555555555</v>
       </c>
       <c r="C52" s="8">
-        <v>43677.996527777781</v>
+        <v>43644.21875</v>
       </c>
       <c r="D52" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="E52" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="F52" s="5" t="b">
+        <v>1.8</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="8">
+        <v>43644.21875</v>
+      </c>
+      <c r="C53" s="8">
+        <v>43647.486111111109</v>
+      </c>
+      <c r="D53" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
       <c r="E53" s="14"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+      <c r="A54" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="8">
+        <v>43647.489583333336</v>
+      </c>
+      <c r="C54" s="8">
+        <v>43661.625</v>
+      </c>
+      <c r="D54" s="7">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="E54" s="14"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="5"/>
+      <c r="A55" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="8">
+        <v>43661.628472222219</v>
+      </c>
+      <c r="C55" s="8">
+        <v>43677.996527777781</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8"/>
@@ -1789,84 +1807,54 @@
       <c r="E56" s="14"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="8"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="7">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="7">
         <v>0</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E60" s="14">
         <v>0.1</v>
       </c>
-      <c r="F57" s="5" t="b">
+      <c r="F60" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B61" s="8">
         <v>43592.649305555598</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C61" s="8">
         <v>43594.708333333299</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D61" s="7">
         <v>0</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E61" s="14">
         <v>0</v>
-      </c>
-      <c r="F58" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="1">
-        <v>43586</v>
-      </c>
-      <c r="C59" s="1">
-        <v>43592.770833333299</v>
-      </c>
-      <c r="D59">
-        <v>4.25</v>
-      </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="1">
-        <v>43592.770833333299</v>
-      </c>
-      <c r="C60" s="1">
-        <v>43593.708333333336</v>
-      </c>
-      <c r="D60">
-        <v>3.5</v>
-      </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="22">
-        <v>0.25</v>
       </c>
       <c r="F61" s="26" t="b">
         <v>1</v>
@@ -1876,24 +1864,44 @@
       <c r="A62" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="F62" s="5" t="b">
+      <c r="B62" s="1">
+        <v>43586</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43592.770833333299</v>
+      </c>
+      <c r="D62">
+        <v>4.25</v>
+      </c>
+      <c r="E62" s="22"/>
+      <c r="F62" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43592.770833333299</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43593.708333333336</v>
+      </c>
+      <c r="D63">
+        <v>3.5</v>
+      </c>
+      <c r="E63" s="22"/>
       <c r="F63" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="E64" s="22">
+        <v>0.25</v>
       </c>
       <c r="F64" s="26" t="b">
         <v>1</v>
@@ -1901,55 +1909,64 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" s="26" t="b">
+        <v>26</v>
+      </c>
+      <c r="E65" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="F65" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="F66" s="26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B70" s="8">
         <v>43647.659722222219</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C70" s="8">
         <v>43739</v>
       </c>
-      <c r="D67">
+      <c r="D70">
         <v>-0.15</v>
       </c>
-      <c r="E67"/>
-      <c r="F67" s="26" t="b">
+      <c r="E70"/>
+      <c r="F70" s="26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="E70"/>
-      <c r="F70"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B71"/>
@@ -2749,8 +2766,26 @@
       <c r="E203"/>
       <c r="F203"/>
     </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B204"/>
+      <c r="C204"/>
+      <c r="E204"/>
+      <c r="F204"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B205"/>
+      <c r="C205"/>
+      <c r="E205"/>
+      <c r="F205"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B206"/>
+      <c r="C206"/>
+      <c r="E206"/>
+      <c r="F206"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G67">
+  <autoFilter ref="A1:G70">
     <sortState ref="A2:G58">
       <sortCondition ref="A2:A58"/>
       <sortCondition ref="B2:B58"/>
@@ -2766,11 +2801,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC1341"/>
+  <dimension ref="A1:XFC1348"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D389" sqref="D389"/>
+      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D394" sqref="D394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4501,7 +4536,7 @@
         <v>43648.541666666664</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5059,7 +5094,7 @@
         <v>43665.177083333336</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
@@ -13263,7 +13298,7 @@
         <v>43666.177083333336</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="160" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" x14ac:dyDescent="0.3">
@@ -13861,7 +13896,7 @@
         <v>43671</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="202" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -28805,132 +28840,124 @@
       <c r="F387" s="8"/>
       <c r="G387" s="8"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B388" s="8">
+        <v>43637.520833333336</v>
+      </c>
+      <c r="C388" s="8">
+        <v>43641.538194444445</v>
+      </c>
+      <c r="D388" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F388" s="8"/>
+      <c r="G388" s="8"/>
+    </row>
+    <row r="389" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B389" s="8">
+        <v>43644.135416666664</v>
+      </c>
+      <c r="C389" s="8">
+        <v>43644.21875</v>
+      </c>
+      <c r="D389" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F389" s="8"/>
+      <c r="G389" s="8"/>
+    </row>
+    <row r="390" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B390" s="8">
+        <v>43644.572916666664</v>
+      </c>
+      <c r="C390" s="8">
+        <v>43647.489583333336</v>
+      </c>
+      <c r="D390" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E390" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F390" s="8"/>
+      <c r="G390" s="8"/>
+    </row>
+    <row r="391" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B391" s="8">
+        <v>43655.552083333336</v>
+      </c>
+      <c r="C391" s="8">
         <v>43661.5625</v>
       </c>
-      <c r="C388" s="8">
-        <v>43661.604166666664</v>
-      </c>
-      <c r="D388" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E388" s="7"/>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A389" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B389" s="8">
-        <v>43619</v>
-      </c>
-      <c r="C389" s="8">
-        <v>43619.125</v>
-      </c>
-      <c r="D389" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E389" s="7"/>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A390" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B390" s="8">
-        <v>43633.083333333336</v>
-      </c>
-      <c r="C390" s="8">
-        <v>43633.458333333336</v>
-      </c>
-      <c r="D390" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E390" s="7"/>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A391" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B391" s="8">
-        <v>43637</v>
-      </c>
-      <c r="C391" s="8">
-        <v>43641.541666666664</v>
-      </c>
       <c r="D391" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E391" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="E391" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F391" s="8"/>
+      <c r="G391" s="8"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B392" s="8">
-        <v>43643.291666666664</v>
+        <v>43661.5625</v>
       </c>
       <c r="C392" s="8">
-        <v>43643.666666666664</v>
+        <v>43661.604166666664</v>
       </c>
       <c r="D392" s="7" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E392" s="7"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A393" s="3" t="s">
-        <v>46</v>
+    <row r="393" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B393" s="8">
-        <v>43644.229166666664</v>
+        <v>43668.784722222219</v>
       </c>
       <c r="C393" s="8">
-        <v>43644.583333333336</v>
+        <v>43669.243055555555</v>
       </c>
       <c r="D393" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E393" s="7"/>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A394" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B394" s="8">
-        <v>43645.21875</v>
-      </c>
-      <c r="C394" s="8">
-        <v>43645.5625</v>
-      </c>
-      <c r="D394" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E394" s="7"/>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A395" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B395" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D395" s="7"/>
-      <c r="E395" s="7" t="s">
-        <v>51</v>
-      </c>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="3"/>
+      <c r="B394" s="8"/>
+      <c r="C394" s="8"/>
+    </row>
+    <row r="395" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="3"/>
+      <c r="B395" s="8"/>
+      <c r="C395" s="8"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B396" s="8">
-        <v>43591.375</v>
+        <v>43619</v>
       </c>
       <c r="C396" s="8">
-        <v>43592.458333333336</v>
+        <v>43619.125</v>
       </c>
       <c r="D396" s="7" t="s">
         <v>47</v>
@@ -28939,106 +28966,103 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B397" s="8">
-        <v>43592.125</v>
+        <v>43633.083333333336</v>
       </c>
       <c r="C397" s="8">
-        <v>43594.416666666664</v>
+        <v>43633.458333333336</v>
       </c>
       <c r="D397" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E397" s="7"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B398" s="8">
-        <v>43595.291666666664</v>
+        <v>43637</v>
       </c>
       <c r="C398" s="8">
-        <v>43595.416666666664</v>
+        <v>43641.541666666664</v>
       </c>
       <c r="D398" s="7" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E398" s="7"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B399" s="8">
-        <v>43596.319444444445</v>
+        <v>43643.291666666664</v>
       </c>
       <c r="C399" s="8">
-        <v>43596.947916666664</v>
+        <v>43643.666666666664</v>
       </c>
       <c r="D399" s="7" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E399" s="7"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B400" s="8">
-        <v>43601.333333333336</v>
+        <v>43644.229166666664</v>
       </c>
       <c r="C400" s="8">
-        <v>43601.854166666664</v>
+        <v>43644.583333333336</v>
       </c>
       <c r="D400" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E400" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="E400" s="7"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B401" s="8">
-        <v>43604.083333333336</v>
+        <v>43645.21875</v>
       </c>
       <c r="C401" s="8">
-        <v>43605.1875</v>
+        <v>43645.5625</v>
       </c>
       <c r="D401" s="7" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E401" s="7"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B402" s="8">
-        <v>43604.083333333336</v>
-      </c>
-      <c r="C402" s="8">
-        <v>43633.6875</v>
-      </c>
-      <c r="D402" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E402" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="B402" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D402" s="7"/>
+      <c r="E402" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B403" s="8">
-        <v>43605.190972222219</v>
+        <v>43591.375</v>
       </c>
       <c r="C403" s="8">
-        <v>43616.999305555553</v>
+        <v>43592.458333333336</v>
       </c>
       <c r="D403" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E403" s="7"/>
     </row>
@@ -29047,40 +29071,40 @@
         <v>18</v>
       </c>
       <c r="B404" s="8">
-        <v>43637.270833333336</v>
+        <v>43592.125</v>
       </c>
       <c r="C404" s="8">
-        <v>43605.3125</v>
+        <v>43594.416666666664</v>
       </c>
       <c r="D404" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E404" s="7"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B405" s="8">
+        <v>43595.291666666664</v>
+      </c>
+      <c r="C405" s="8">
+        <v>43595.416666666664</v>
+      </c>
+      <c r="D405" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E404" s="7"/>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A405" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B405" s="8">
-        <v>43575</v>
-      </c>
-      <c r="C405" s="8">
-        <v>43593.75</v>
-      </c>
-      <c r="D405" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="E405" s="7"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A406" s="7" t="s">
-        <v>26</v>
+      <c r="A406" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B406" s="8">
-        <v>43594.965277777781</v>
+        <v>43596.319444444445</v>
       </c>
       <c r="C406" s="8">
-        <v>43595.375</v>
+        <v>43596.947916666664</v>
       </c>
       <c r="D406" s="7" t="s">
         <v>47</v>
@@ -29088,29 +29112,29 @@
       <c r="E406" s="7"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A407" s="7" t="s">
-        <v>26</v>
+      <c r="A407" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B407" s="8">
-        <v>43596.395833333336</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C407" s="8">
-        <v>43596.517361111109</v>
+        <v>43601.854166666664</v>
       </c>
       <c r="D407" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E407" s="7"/>
+      <c r="E407" s="3"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B408" s="8">
-        <v>43601.420138888891</v>
+        <v>43604.083333333336</v>
       </c>
       <c r="C408" s="8">
-        <v>43601.604166666664</v>
+        <v>43605.1875</v>
       </c>
       <c r="D408" s="7" t="s">
         <v>47</v>
@@ -29119,43 +29143,43 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B409" s="8">
-        <v>43604.4375</v>
+        <v>43604.083333333336</v>
       </c>
       <c r="C409" s="8">
-        <v>43604.638888888891</v>
+        <v>43633.6875</v>
       </c>
       <c r="D409" s="7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E409" s="7"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B410" s="8">
-        <v>43604.875</v>
+        <v>43605.190972222219</v>
       </c>
       <c r="C410" s="8">
-        <v>43605.569444444445</v>
+        <v>43616.999305555553</v>
       </c>
       <c r="D410" s="7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E410" s="7"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B411" s="8">
-        <v>43607.239583333336</v>
+        <v>43637.270833333336</v>
       </c>
       <c r="C411" s="8">
-        <v>43607.354166666664</v>
+        <v>43605.3125</v>
       </c>
       <c r="D411" s="7" t="s">
         <v>47</v>
@@ -29163,29 +29187,29 @@
       <c r="E411" s="7"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A412" s="3" t="s">
+      <c r="A412" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B412" s="16">
-        <v>43611.885416666664</v>
-      </c>
-      <c r="C412" s="16">
-        <v>43612.34375</v>
+      <c r="B412" s="8">
+        <v>43575</v>
+      </c>
+      <c r="C412" s="8">
+        <v>43593.75</v>
       </c>
       <c r="D412" s="7" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E412" s="7"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A413" s="3" t="s">
+      <c r="A413" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B413" s="16">
-        <v>43637.208333333336</v>
-      </c>
-      <c r="C413" s="16">
-        <v>43637.416666666664</v>
+      <c r="B413" s="8">
+        <v>43594.965277777781</v>
+      </c>
+      <c r="C413" s="8">
+        <v>43595.375</v>
       </c>
       <c r="D413" s="7" t="s">
         <v>47</v>
@@ -29194,13 +29218,13 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B414" s="8">
-        <v>43591.333333333336</v>
+        <v>43596.395833333336</v>
       </c>
       <c r="C414" s="8">
-        <v>43591.479166666664</v>
+        <v>43596.517361111109</v>
       </c>
       <c r="D414" s="7" t="s">
         <v>47</v>
@@ -29208,14 +29232,14 @@
       <c r="E414" s="7"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A415" s="7" t="s">
-        <v>19</v>
+      <c r="A415" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B415" s="8">
-        <v>43592.173611111109</v>
+        <v>43601.420138888891</v>
       </c>
       <c r="C415" s="8">
-        <v>43592.288194444445</v>
+        <v>43601.604166666664</v>
       </c>
       <c r="D415" s="7" t="s">
         <v>47</v>
@@ -29223,14 +29247,14 @@
       <c r="E415" s="7"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A416" s="7" t="s">
-        <v>19</v>
+      <c r="A416" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B416" s="8">
-        <v>43595.041666666664</v>
+        <v>43604.4375</v>
       </c>
       <c r="C416" s="8">
-        <v>43595.322916666664</v>
+        <v>43604.638888888891</v>
       </c>
       <c r="D416" s="7" t="s">
         <v>47</v>
@@ -29238,14 +29262,14 @@
       <c r="E416" s="7"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A417" s="7" t="s">
-        <v>19</v>
+      <c r="A417" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B417" s="8">
-        <v>43596.270833333336</v>
+        <v>43604.875</v>
       </c>
       <c r="C417" s="8">
-        <v>43596.534722222219</v>
+        <v>43605.569444444445</v>
       </c>
       <c r="D417" s="7" t="s">
         <v>47</v>
@@ -29253,14 +29277,14 @@
       <c r="E417" s="7"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A418" s="7" t="s">
-        <v>19</v>
+      <c r="A418" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B418" s="8">
-        <v>43601.40625</v>
+        <v>43607.239583333336</v>
       </c>
       <c r="C418" s="8">
-        <v>43601.565972222219</v>
+        <v>43607.354166666664</v>
       </c>
       <c r="D418" s="7" t="s">
         <v>47</v>
@@ -29268,14 +29292,14 @@
       <c r="E418" s="7"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A419" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B419" s="8">
-        <v>43604.416666666664</v>
-      </c>
-      <c r="C419" s="8">
-        <v>43605.368055555555</v>
+      <c r="A419" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B419" s="16">
+        <v>43611.885416666664</v>
+      </c>
+      <c r="C419" s="16">
+        <v>43612.34375</v>
       </c>
       <c r="D419" s="7" t="s">
         <v>47</v>
@@ -29283,14 +29307,14 @@
       <c r="E419" s="7"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A420" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B420" s="8">
-        <v>43606.951388888891</v>
-      </c>
-      <c r="C420" s="8">
-        <v>43607.875</v>
+      <c r="A420" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B420" s="16">
+        <v>43637.208333333336</v>
+      </c>
+      <c r="C420" s="16">
+        <v>43637.416666666664</v>
       </c>
       <c r="D420" s="7" t="s">
         <v>47</v>
@@ -29302,10 +29326,10 @@
         <v>19</v>
       </c>
       <c r="B421" s="8">
-        <v>43611.9375</v>
+        <v>43591.333333333336</v>
       </c>
       <c r="C421" s="8">
-        <v>43612.111111111109</v>
+        <v>43591.479166666664</v>
       </c>
       <c r="D421" s="7" t="s">
         <v>47</v>
@@ -29314,13 +29338,13 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B422" s="8">
-        <v>43591.409722222219</v>
+        <v>43592.173611111109</v>
       </c>
       <c r="C422" s="8">
-        <v>43592.583333333336</v>
+        <v>43592.288194444445</v>
       </c>
       <c r="D422" s="7" t="s">
         <v>47</v>
@@ -29329,13 +29353,13 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B423" s="8">
-        <v>43595.194444444445</v>
+        <v>43595.041666666664</v>
       </c>
       <c r="C423" s="8">
-        <v>43595.4375</v>
+        <v>43595.322916666664</v>
       </c>
       <c r="D423" s="7" t="s">
         <v>47</v>
@@ -29344,13 +29368,13 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B424" s="8">
-        <v>43595.260416666664</v>
+        <v>43596.270833333336</v>
       </c>
       <c r="C424" s="8">
-        <v>43594.875</v>
+        <v>43596.534722222219</v>
       </c>
       <c r="D424" s="7" t="s">
         <v>47</v>
@@ -29359,13 +29383,13 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B425" s="8">
-        <v>43596.340277777781</v>
+        <v>43601.40625</v>
       </c>
       <c r="C425" s="8">
-        <v>43596.895833333336</v>
+        <v>43601.565972222219</v>
       </c>
       <c r="D425" s="7" t="s">
         <v>47</v>
@@ -29374,13 +29398,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B426" s="8">
-        <v>43601.440972222219</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C426" s="8">
-        <v>43601.822916666664</v>
+        <v>43605.368055555555</v>
       </c>
       <c r="D426" s="7" t="s">
         <v>47</v>
@@ -29389,13 +29413,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B427" s="8">
-        <v>43604.440972222219</v>
+        <v>43606.951388888891</v>
       </c>
       <c r="C427" s="8">
-        <v>43608.708333333336</v>
+        <v>43607.875</v>
       </c>
       <c r="D427" s="7" t="s">
         <v>47</v>
@@ -29404,13 +29428,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B428" s="8">
-        <v>43610.291666666664</v>
+        <v>43611.9375</v>
       </c>
       <c r="C428" s="8">
-        <v>43612.25</v>
+        <v>43612.111111111109</v>
       </c>
       <c r="D428" s="7" t="s">
         <v>47</v>
@@ -29422,10 +29446,10 @@
         <v>20</v>
       </c>
       <c r="B429" s="8">
-        <v>43633.583333333336</v>
+        <v>43591.409722222219</v>
       </c>
       <c r="C429" s="8">
-        <v>43633.833333333336</v>
+        <v>43592.583333333336</v>
       </c>
       <c r="D429" s="7" t="s">
         <v>47</v>
@@ -29437,10 +29461,10 @@
         <v>20</v>
       </c>
       <c r="B430" s="8">
-        <v>43637.104166666664</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C430" s="8">
-        <v>43637.791666666664</v>
+        <v>43595.4375</v>
       </c>
       <c r="D430" s="7" t="s">
         <v>47</v>
@@ -29452,25 +29476,25 @@
         <v>20</v>
       </c>
       <c r="B431" s="8">
-        <v>43646</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C431" s="8">
-        <v>43646.020833333336</v>
+        <v>43594.875</v>
       </c>
       <c r="D431" s="7" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E431" s="7"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B432" s="8">
-        <v>43591.375</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C432" s="8">
-        <v>43591.78125</v>
+        <v>43596.895833333336</v>
       </c>
       <c r="D432" s="7" t="s">
         <v>47</v>
@@ -29479,13 +29503,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B433" s="8">
-        <v>43592.166666666664</v>
+        <v>43601.440972222219</v>
       </c>
       <c r="C433" s="8">
-        <v>43592.579861111109</v>
+        <v>43601.822916666664</v>
       </c>
       <c r="D433" s="7" t="s">
         <v>47</v>
@@ -29494,13 +29518,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B434" s="8">
-        <v>43595.194444444445</v>
+        <v>43604.440972222219</v>
       </c>
       <c r="C434" s="8">
-        <v>43595.4375</v>
+        <v>43608.708333333336</v>
       </c>
       <c r="D434" s="7" t="s">
         <v>47</v>
@@ -29509,13 +29533,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B435" s="8">
-        <v>43595.260416666664</v>
+        <v>43610.291666666664</v>
       </c>
       <c r="C435" s="8">
-        <v>43594.875</v>
+        <v>43612.25</v>
       </c>
       <c r="D435" s="7" t="s">
         <v>47</v>
@@ -29524,13 +29548,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B436" s="8">
-        <v>43596.340277777781</v>
+        <v>43633.583333333336</v>
       </c>
       <c r="C436" s="8">
-        <v>43596.895833333336</v>
+        <v>43633.833333333336</v>
       </c>
       <c r="D436" s="7" t="s">
         <v>47</v>
@@ -29539,13 +29563,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B437" s="8">
-        <v>43601.388888888891</v>
+        <v>43637.104166666664</v>
       </c>
       <c r="C437" s="8">
-        <v>43601.822916666664</v>
+        <v>43637.791666666664</v>
       </c>
       <c r="D437" s="7" t="s">
         <v>47</v>
@@ -29554,16 +29578,16 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B438" s="8">
-        <v>43604.350694444445</v>
+        <v>43646</v>
       </c>
       <c r="C438" s="8">
-        <v>43608.708333333336</v>
+        <v>43646.020833333336</v>
       </c>
       <c r="D438" s="7" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E438" s="7"/>
     </row>
@@ -29572,10 +29596,10 @@
         <v>25</v>
       </c>
       <c r="B439" s="8">
-        <v>43611.892361111109</v>
+        <v>43591.375</v>
       </c>
       <c r="C439" s="8">
-        <v>43612.25</v>
+        <v>43591.78125</v>
       </c>
       <c r="D439" s="7" t="s">
         <v>47</v>
@@ -29587,13 +29611,13 @@
         <v>25</v>
       </c>
       <c r="B440" s="8">
-        <v>43616.208333333336</v>
+        <v>43592.166666666664</v>
       </c>
       <c r="C440" s="8">
-        <v>43616.701388888891</v>
+        <v>43592.579861111109</v>
       </c>
       <c r="D440" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E440" s="7"/>
     </row>
@@ -29602,13 +29626,13 @@
         <v>25</v>
       </c>
       <c r="B441" s="8">
-        <v>43616.208333333336</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C441" s="8">
-        <v>43616.701388888891</v>
+        <v>43595.4375</v>
       </c>
       <c r="D441" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="E441" s="7"/>
     </row>
@@ -29617,10 +29641,10 @@
         <v>25</v>
       </c>
       <c r="B442" s="8">
-        <v>43633.583333333336</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C442" s="8">
-        <v>43633.791666666664</v>
+        <v>43594.875</v>
       </c>
       <c r="D442" s="7" t="s">
         <v>47</v>
@@ -29632,10 +29656,10 @@
         <v>25</v>
       </c>
       <c r="B443" s="8">
-        <v>43637.104166666664</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C443" s="8">
-        <v>43637.791666666664</v>
+        <v>43596.895833333336</v>
       </c>
       <c r="D443" s="7" t="s">
         <v>47</v>
@@ -29643,295 +29667,302 @@
       <c r="E443" s="7"/>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A444" s="3" t="s">
+      <c r="A444" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B444" s="8">
+        <v>43601.388888888891</v>
+      </c>
+      <c r="C444" s="8">
+        <v>43601.822916666664</v>
+      </c>
+      <c r="D444" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E444" s="7"/>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B445" s="8">
+        <v>43604.350694444445</v>
+      </c>
+      <c r="C445" s="8">
+        <v>43608.708333333336</v>
+      </c>
+      <c r="D445" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E445" s="7"/>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B446" s="8">
+        <v>43611.892361111109</v>
+      </c>
+      <c r="C446" s="8">
+        <v>43612.25</v>
+      </c>
+      <c r="D446" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E446" s="7"/>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B447" s="8">
+        <v>43616.208333333336</v>
+      </c>
+      <c r="C447" s="8">
+        <v>43616.701388888891</v>
+      </c>
+      <c r="D447" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E447" s="7"/>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B448" s="8">
+        <v>43616.208333333336</v>
+      </c>
+      <c r="C448" s="8">
+        <v>43616.701388888891</v>
+      </c>
+      <c r="D448" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E448" s="7"/>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B449" s="8">
+        <v>43633.583333333336</v>
+      </c>
+      <c r="C449" s="8">
+        <v>43633.791666666664</v>
+      </c>
+      <c r="D449" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E449" s="7"/>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B450" s="8">
+        <v>43637.104166666664</v>
+      </c>
+      <c r="C450" s="8">
+        <v>43637.791666666664</v>
+      </c>
+      <c r="D450" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E450" s="7"/>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B444" s="8">
+      <c r="B451" s="8">
         <v>43669.013888888891</v>
       </c>
-      <c r="C444" s="8">
+      <c r="C451" s="8">
         <v>43669.182638888888</v>
       </c>
-      <c r="D444" s="7" t="s">
+      <c r="D451" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E444" s="7"/>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
+      <c r="E451" s="7"/>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
         <v>7</v>
       </c>
-      <c r="B445" s="8">
+      <c r="B452" s="8">
         <v>43670.631944444445</v>
       </c>
-      <c r="C445" s="8">
+      <c r="C452" s="8">
         <v>43670.788194444445</v>
       </c>
-      <c r="D445" t="s">
+      <c r="D452" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
         <v>7</v>
       </c>
-      <c r="B446" s="8">
+      <c r="B453" s="8">
         <v>43674.638888888891</v>
       </c>
-      <c r="C446" s="8">
+      <c r="C453" s="8">
         <v>43674.791666666664</v>
       </c>
-      <c r="D446" t="s">
+      <c r="D453" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
         <v>7</v>
       </c>
-      <c r="B447" s="8">
+      <c r="B454" s="8">
         <v>43675.020833333336</v>
       </c>
-      <c r="C447" s="8">
+      <c r="C454" s="8">
         <v>43675.180555555555</v>
       </c>
-      <c r="D447" t="s">
+      <c r="D454" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
         <v>7</v>
       </c>
-      <c r="B448" s="8">
+      <c r="B455" s="8">
         <v>43676.642361111109</v>
       </c>
-      <c r="C448" s="8">
+      <c r="C455" s="8">
         <v>43676.795138888891</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D455" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
         <v>7</v>
       </c>
-      <c r="B449" s="8">
+      <c r="B456" s="8">
         <v>43677.638888888891</v>
       </c>
-      <c r="C449" s="8">
+      <c r="C456" s="8">
         <v>43677.791666666664</v>
       </c>
-      <c r="D449" t="s">
+      <c r="D456" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A450" s="3" t="s">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B450" s="8">
+      <c r="B457" s="8">
         <v>43649.229166666664</v>
       </c>
-      <c r="C450" s="8">
+      <c r="C457" s="8">
         <v>43651.916666666664</v>
       </c>
-      <c r="D450" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A451" s="3" t="s">
+      <c r="D457" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B451" s="8">
+      <c r="B458" s="8">
         <v>43664.972222222219</v>
       </c>
-      <c r="C451" s="8">
+      <c r="C458" s="8">
         <v>43671.9375</v>
       </c>
-      <c r="D451" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A452" s="3" t="s">
+      <c r="D458" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B452" s="8">
+      <c r="B459" s="8">
         <v>43647.697916666664</v>
       </c>
-      <c r="C452" s="8">
+      <c r="C459" s="8">
         <v>43648.583333333336</v>
       </c>
-      <c r="D452" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A453" s="3" t="s">
+      <c r="D459" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B453" s="8">
+      <c r="B460" s="8">
         <v>43654.802083333336</v>
       </c>
-      <c r="C453" s="8">
+      <c r="C460" s="8">
         <v>43657.770833333336</v>
       </c>
-      <c r="D453" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A454" s="3" t="s">
+      <c r="D460" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B454" s="8">
+      <c r="B461" s="8">
         <v>43670.85</v>
       </c>
-      <c r="C454" s="8">
+      <c r="C461" s="8">
         <v>43672.670138888891</v>
       </c>
-      <c r="D454" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A455" s="3" t="s">
+      <c r="D461" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B455" s="8">
+      <c r="B462" s="8">
         <v>43662.652777777781</v>
       </c>
-      <c r="C455" s="8">
+      <c r="C462" s="8">
         <v>43662.694444444445</v>
-      </c>
-      <c r="D455" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A456" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B456" s="8">
-        <v>43668.541666666664</v>
-      </c>
-      <c r="C456" s="8">
-        <v>43668.5625</v>
-      </c>
-      <c r="D456" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A457" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B457" s="8">
-        <v>43676.263888888891</v>
-      </c>
-      <c r="C457" s="8">
-        <v>43676.305555555555</v>
-      </c>
-      <c r="D457" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A458" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B458" s="8">
-        <v>43647.649305555555</v>
-      </c>
-      <c r="C458" s="8">
-        <v>43647.659722222219</v>
-      </c>
-      <c r="D458" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A459" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B459" s="33">
-        <v>43661.048611111109</v>
-      </c>
-      <c r="C459" s="8">
-        <v>43661.163194444445</v>
-      </c>
-      <c r="D459" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A460" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B460" s="8">
-        <v>43663.003472222219</v>
-      </c>
-      <c r="C460" s="8">
-        <v>43663.03125</v>
-      </c>
-      <c r="D460" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A461" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B461" s="8">
-        <v>43669.003472222219</v>
-      </c>
-      <c r="C461" s="8">
-        <v>43669.03125</v>
-      </c>
-      <c r="D461" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A462" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B462" s="8">
-        <v>43669.71875</v>
-      </c>
-      <c r="C462" s="8">
-        <v>43669.795138888891</v>
       </c>
       <c r="D462" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B463" s="8">
-        <v>43674.003472222219</v>
+        <v>43668.541666666664</v>
       </c>
       <c r="C463" s="8">
-        <v>43674.03125</v>
+        <v>43668.5625</v>
       </c>
       <c r="D463" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B464" s="8">
-        <v>43675.003472222219</v>
+        <v>43676.263888888891</v>
       </c>
       <c r="C464" s="8">
-        <v>43675.048611111109</v>
+        <v>43676.305555555555</v>
       </c>
       <c r="D464" s="7" t="s">
         <v>75</v>
@@ -29939,45 +29970,115 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B465" s="8">
+        <v>43647.649305555555</v>
+      </c>
+      <c r="C465" s="8">
+        <v>43647.659722222219</v>
+      </c>
+      <c r="D465" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B465" s="8">
+      <c r="B466" s="33">
+        <v>43661.048611111109</v>
+      </c>
+      <c r="C466" s="8">
+        <v>43661.163194444445</v>
+      </c>
+      <c r="D466" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B467" s="8">
+        <v>43663.003472222219</v>
+      </c>
+      <c r="C467" s="8">
+        <v>43663.03125</v>
+      </c>
+      <c r="D467" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B468" s="8">
+        <v>43669.003472222219</v>
+      </c>
+      <c r="C468" s="8">
+        <v>43669.03125</v>
+      </c>
+      <c r="D468" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B469" s="8">
+        <v>43669.71875</v>
+      </c>
+      <c r="C469" s="8">
+        <v>43669.795138888891</v>
+      </c>
+      <c r="D469" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B470" s="8">
+        <v>43674.003472222219</v>
+      </c>
+      <c r="C470" s="8">
+        <v>43674.03125</v>
+      </c>
+      <c r="D470" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B471" s="8">
+        <v>43675.003472222219</v>
+      </c>
+      <c r="C471" s="8">
+        <v>43675.048611111109</v>
+      </c>
+      <c r="D471" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B472" s="8">
         <v>43676.003472222219</v>
       </c>
-      <c r="C465" s="8">
+      <c r="C472" s="8">
         <v>43676.03125</v>
       </c>
-      <c r="D465" s="7" t="s">
+      <c r="D472" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B466"/>
-      <c r="C466"/>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B467"/>
-      <c r="C467"/>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B468"/>
-      <c r="C468"/>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B469"/>
-      <c r="C469"/>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B470"/>
-      <c r="C470"/>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B471"/>
-      <c r="C471"/>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B472"/>
-      <c r="C472"/>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B473"/>
@@ -33455,8 +33556,36 @@
       <c r="B1341"/>
       <c r="C1341"/>
     </row>
+    <row r="1342" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1342"/>
+      <c r="C1342"/>
+    </row>
+    <row r="1343" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1343"/>
+      <c r="C1343"/>
+    </row>
+    <row r="1344" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1344"/>
+      <c r="C1344"/>
+    </row>
+    <row r="1345" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1345"/>
+      <c r="C1345"/>
+    </row>
+    <row r="1346" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1346"/>
+      <c r="C1346"/>
+    </row>
+    <row r="1347" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1347"/>
+      <c r="C1347"/>
+    </row>
+    <row r="1348" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1348"/>
+      <c r="C1348"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E465"/>
+  <autoFilter ref="A1:E472"/>
   <sortState ref="A2:E443">
     <sortCondition ref="A2:A443"/>
     <sortCondition ref="B2:B443"/>
@@ -33473,11 +33602,11 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33500,10 +33629,10 @@
         <v>53</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33515,7 +33644,7 @@
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>90</v>
@@ -33529,7 +33658,7 @@
         <v>90</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="32"/>
     </row>
@@ -33541,7 +33670,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="32"/>
     </row>
@@ -33553,7 +33682,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="32"/>
     </row>
@@ -33566,7 +33695,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>90</v>
@@ -33581,10 +33710,10 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33596,10 +33725,10 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -33610,7 +33739,7 @@
         <v>88</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="32"/>
     </row>
@@ -33623,10 +33752,10 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -33637,7 +33766,7 @@
         <v>90</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="32"/>
     </row>
@@ -33649,7 +33778,7 @@
         <v>87</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="32"/>
     </row>
@@ -33661,7 +33790,7 @@
         <v>92</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="32"/>
     </row>
@@ -33674,10 +33803,10 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -33685,10 +33814,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="D15" s="32"/>
     </row>
@@ -33700,7 +33829,7 @@
         <v>94</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="32"/>
     </row>
@@ -33712,7 +33841,7 @@
         <v>90</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="32"/>
     </row>
@@ -33721,10 +33850,10 @@
         <v>40</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="32"/>
     </row>
@@ -33736,7 +33865,7 @@
         <v>106</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="32"/>
     </row>
@@ -33748,7 +33877,7 @@
         <v>96</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="32"/>
     </row>
@@ -33770,7 +33899,7 @@
         <v>97</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="32"/>
     </row>
@@ -33792,7 +33921,7 @@
         <v>99</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="32"/>
     </row>
@@ -33804,7 +33933,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="32"/>
     </row>
@@ -33816,7 +33945,7 @@
         <v>101</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="32"/>
     </row>
@@ -33828,7 +33957,7 @@
         <v>90</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="32"/>
     </row>
@@ -33840,7 +33969,7 @@
         <v>102</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" s="32"/>
     </row>
@@ -33852,7 +33981,7 @@
         <v>90</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="32"/>
     </row>
@@ -33864,7 +33993,7 @@
         <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="32"/>
     </row>
@@ -33876,7 +34005,7 @@
         <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" s="32"/>
     </row>
@@ -33898,7 +34027,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="32"/>
     </row>
@@ -33910,12 +34039,12 @@
       <c r="C34" s="11"/>
       <c r="D34" s="32"/>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="32"/>
@@ -33928,7 +34057,7 @@
         <v>90</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="32"/>
     </row>
@@ -33937,7 +34066,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="32"/>
@@ -33950,7 +34079,7 @@
         <v>90</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="32"/>
     </row>
@@ -33959,7 +34088,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="32"/>
@@ -33969,7 +34098,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="32"/>
@@ -33982,7 +34111,7 @@
         <v>90</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="32"/>
     </row>

--- a/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
@@ -592,7 +592,7 @@
         <xdr:cNvPr id="2" name="EsriDoNotEdit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33597,7 +33597,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E41"/>
@@ -33606,7 +33606,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33650,7 +33650,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
@@ -33662,7 +33662,7 @@
       </c>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
@@ -33674,7 +33674,7 @@
       </c>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -33731,7 +33731,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
@@ -33758,7 +33758,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>42</v>
       </c>
@@ -33770,7 +33770,7 @@
       </c>
       <c r="D11" s="32"/>
     </row>
-    <row r="12" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>50</v>
       </c>
@@ -33782,7 +33782,7 @@
       </c>
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>8</v>
       </c>
@@ -33809,7 +33809,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>10</v>
       </c>
@@ -33821,7 +33821,7 @@
       </c>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>11</v>
       </c>
@@ -33833,7 +33833,7 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>12</v>
       </c>
@@ -33845,7 +33845,7 @@
       </c>
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="1:4" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>40</v>
       </c>
@@ -33857,7 +33857,7 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>41</v>
       </c>
@@ -33869,7 +33869,7 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
         <v>13</v>
       </c>
@@ -33891,7 +33891,7 @@
       <c r="C21" s="11"/>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>14</v>
       </c>
@@ -33913,7 +33913,7 @@
       <c r="C23" s="11"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
@@ -33925,7 +33925,7 @@
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
@@ -33937,7 +33937,7 @@
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>17</v>
       </c>
@@ -33949,7 +33949,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
@@ -33961,7 +33961,7 @@
       </c>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>34</v>
       </c>
@@ -33973,7 +33973,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
@@ -33985,7 +33985,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>36</v>
       </c>
@@ -33997,7 +33997,7 @@
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>37</v>
       </c>
@@ -34019,7 +34019,7 @@
       <c r="C32" s="11"/>
       <c r="D32" s="32"/>
     </row>
-    <row r="33" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
@@ -34049,7 +34049,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="32"/>
     </row>
-    <row r="36" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>46</v>
       </c>
@@ -34071,7 +34071,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="32"/>
     </row>
-    <row r="38" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>26</v>
       </c>
@@ -34103,7 +34103,7 @@
       <c r="C40" s="11"/>
       <c r="D40" s="32"/>
     </row>
-    <row r="41" spans="1:4" ht="24.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>25</v>
       </c>
@@ -34116,11 +34116,7 @@
       <c r="D41" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C41">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C41"/>
   <sortState ref="A2:A16">
     <sortCondition ref="A2:A16"/>
   </sortState>

--- a/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="129">
   <si>
     <t>Site</t>
   </si>
@@ -414,6 +414,12 @@
   <si>
     <t>level spike on 7/15 same day as manual download. Looks like pattern of higher water temp with the pumping pattern. One period of data (7/9-7/15) was clipped out since it didn't match up with the game cam observations</t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testing testing</t>
+  </si>
 </sst>
 </file>
 
@@ -592,7 +598,7 @@
         <xdr:cNvPr id="2" name="EsriDoNotEdit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33600,13 +33606,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -34114,6 +34120,14 @@
         <v>111</v>
       </c>
       <c r="D41" s="32"/>
+    </row>
+    <row r="42" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C41"/>

--- a/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="127">
   <si>
     <t>Site</t>
   </si>
@@ -414,12 +414,6 @@
   <si>
     <t>level spike on 7/15 same day as manual download. Looks like pattern of higher water temp with the pumping pattern. One period of data (7/9-7/15) was clipped out since it didn't match up with the game cam observations</t>
   </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>testing testing</t>
-  </si>
 </sst>
 </file>
 
@@ -598,7 +592,7 @@
         <xdr:cNvPr id="2" name="EsriDoNotEdit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33606,13 +33600,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -34120,14 +34114,6 @@
         <v>111</v>
       </c>
       <c r="D41" s="32"/>
-    </row>
-    <row r="42" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>128</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C41"/>

--- a/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9336" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9336" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Offsets" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>removed probe to clean</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Bad data-doesn't match with game cam</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>Leaf Obstruction at crest of weir</t>
+  </si>
+  <si>
+    <t>AM</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="2" name="EsriDoNotEdit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +2724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC1373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5273,7 +5273,7 @@
         <v>43636.938888888886</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5287,7 +5287,7 @@
         <v>43638.563888888886</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5301,7 +5301,7 @@
         <v>43639.355555555558</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5315,7 +5315,7 @@
         <v>43640.109722222223</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="180" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5329,7 +5329,7 @@
         <v>43644.943749999999</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5343,7 +5343,7 @@
         <v>43653.038194444445</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5357,7 +5357,7 @@
         <v>43654.954861111109</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5371,7 +5371,7 @@
         <v>43663.472222222219</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5748,7 +5748,7 @@
         <v>43620.5</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -5777,7 +5777,7 @@
         <v>43661.510416666664</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="221" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5791,10 +5791,10 @@
         <v>43591.513888888891</v>
       </c>
       <c r="D221" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E221" t="s">
         <v>88</v>
-      </c>
-      <c r="E221" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="222" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -19816,7 +19816,7 @@
         <v>43654.788194444445</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="344" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -20008,10 +20008,10 @@
         <v>43647.489583333336</v>
       </c>
       <c r="D356" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E356" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="E356" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="F356" s="8"/>
       <c r="G356" s="8"/>
@@ -20027,10 +20027,10 @@
         <v>43661.5625</v>
       </c>
       <c r="D357" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E357" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="E357" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="F357" s="8"/>
       <c r="G357" s="8"/>
@@ -20217,7 +20217,7 @@
         <v>43665.5625</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="371" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -20231,7 +20231,7 @@
         <v>43669.267361111109</v>
       </c>
       <c r="D371" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="372" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -20245,7 +20245,7 @@
         <v>43676.225694444445</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -32908,11 +32908,11 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33044,10 +33044,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -33055,10 +33055,10 @@
         <v>40</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33087,10 +33087,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -33098,10 +33098,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33144,10 +33144,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33183,10 +33183,10 @@
         <v>44</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -33194,10 +33194,10 @@
         <v>45</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33205,10 +33205,10 @@
         <v>46</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33216,10 +33216,10 @@
         <v>18</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -33227,10 +33227,10 @@
         <v>26</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33238,10 +33238,10 @@
         <v>19</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -33249,10 +33249,10 @@
         <v>20</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -33260,10 +33260,10 @@
         <v>25</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
@@ -617,7 +617,7 @@
         <xdr:cNvPr id="2" name="EsriDoNotEdit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33857,10 +33857,10 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:B37"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 07_31_2019/Offsets and Clip times 07_31_2019.xlsx
@@ -617,7 +617,7 @@
         <xdr:cNvPr id="2" name="EsriDoNotEdit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -966,7 +966,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3016,7 +3016,7 @@
   <dimension ref="A1:XFC1393"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A156" sqref="A156:XFD163"/>
@@ -33857,7 +33857,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
